--- a/Supplementary/Candidate_genes.xlsx
+++ b/Supplementary/Candidate_genes.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dshipilina/GitHub/VanessaExpression/Supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEEF9C8-DE63-8545-8665-159B9D2951BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE3B049-5610-C049-86CA-72FA15B9896D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15720" xr2:uid="{58D9CE1A-4963-DA41-AE92-9D4036A7B9D2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{58D9CE1A-4963-DA41-AE92-9D4036A7B9D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Adult_experiment_head_tissue" sheetId="1" r:id="rId1"/>
+    <sheet name="Candidate gene summary" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Adult_experiment_head_tissue" sheetId="1" r:id="rId3"/>
+    <sheet name="Adult_experiment_abdomen_tissue" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Candidate gene summary'!$A$1:$K$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet2!$E$1:$E$69</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="336">
   <si>
     <t>name</t>
   </si>
@@ -382,13 +392,730 @@
   </si>
   <si>
     <t>Vcard_DToL13363</t>
+  </si>
+  <si>
+    <t>Vcard_DToL00987-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trypsin CFT-1-like [Vanessa cardui]                              </t>
+  </si>
+  <si>
+    <t>trypsin</t>
+  </si>
+  <si>
+    <t>Vcard_DToL01221-RA</t>
+  </si>
+  <si>
+    <t>major facilitator superfamily domain-containing protein 12-lik...</t>
+  </si>
+  <si>
+    <t>MFS</t>
+  </si>
+  <si>
+    <t>Vcard_DToL01461-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncharacterized protein LOC124533519 [Vanessa cardui]            </t>
+  </si>
+  <si>
+    <t>uncharacterized</t>
+  </si>
+  <si>
+    <t>Vcard_DToL04556-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecdysone oxidase-like [Vanessa cardui]                           </t>
+  </si>
+  <si>
+    <t>ecdysone oxidase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL05461-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbonyl reductase [NADPH] 1-like [Vanessa cardui]               </t>
+  </si>
+  <si>
+    <t>CBR1</t>
+  </si>
+  <si>
+    <t>Vcard_DToL05597-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncharacterized protein LOC125077158 [Vanessa atalanta]          </t>
+  </si>
+  <si>
+    <t>Vcard_DToL06859-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3 SUMO-protein ligase ZBED1-like [Vanessa cardui]               </t>
+  </si>
+  <si>
+    <t>ZBED1</t>
+  </si>
+  <si>
+    <t>Vcard_DToL07064-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peptidoglycan recognition protein-like [Vanessa cardui]          </t>
+  </si>
+  <si>
+    <t>PGRP</t>
+  </si>
+  <si>
+    <t>Vcard_DToL07084-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncharacterized protein LOC124532492 [Vanessa cardui]            </t>
+  </si>
+  <si>
+    <t>Vcard_DToL07089-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allantoicase-like [Vanessa cardui]                               </t>
+  </si>
+  <si>
+    <t>allantoicase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL07962-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peptidoglycan-recognition protein LB-like [Vanessa cardui]       </t>
+  </si>
+  <si>
+    <t>Vcard_DToL07964-RA</t>
+  </si>
+  <si>
+    <t>PGRP-LB</t>
+  </si>
+  <si>
+    <t>Vcard_DToL08950-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macrophage mannose receptor 1-like [Vanessa cardui]              </t>
+  </si>
+  <si>
+    <t>Vcard_DToL09711-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lipase 1-like [Vanessa cardui]                                   </t>
+  </si>
+  <si>
+    <t>lipase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL10297-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncharacterized protein LOC124535330 [Vanessa cardui]            </t>
+  </si>
+  <si>
+    <t>Vcard_DToL11994-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cysteine sulfinic acid decarboxylase [Vanessa cardui]            </t>
+  </si>
+  <si>
+    <t>CSAD</t>
+  </si>
+  <si>
+    <t>Vcard_DToL12126-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA exonuclease 4-like [Vanessa cardui]                          </t>
+  </si>
+  <si>
+    <t>RNA exonuclease</t>
+  </si>
+  <si>
+    <t>Vcard_DToL12491-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alanine aminotransferase 2-like isoform X2 [Vanessa cardui]      </t>
+  </si>
+  <si>
+    <t>alanine aminotransferase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL13220-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuticle protein 3-like [Vanessa cardui]                          </t>
+  </si>
+  <si>
+    <t>Vcard_DToL13737-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toll-like receptor 3 [Vanessa cardui]                            </t>
+  </si>
+  <si>
+    <t>toll-like receptor</t>
+  </si>
+  <si>
+    <t>Vcard_DToL14428-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bilin-binding protein-like [Vanessa cardui]                      </t>
+  </si>
+  <si>
+    <t>bilin-binding protein</t>
+  </si>
+  <si>
+    <t>Vcard_DToL15621-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attacin-B-like [Vanessa cardui]                                  </t>
+  </si>
+  <si>
+    <t>attacin-B</t>
+  </si>
+  <si>
+    <t>Vcard_DToL15624-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gloverin-like [Vanessa cardui]                                   </t>
+  </si>
+  <si>
+    <t>Vcard_DToL16441-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zinc finger MYND domain-containing protein 10 [Vanessa cardui]   </t>
+  </si>
+  <si>
+    <t>zinc finger MYND</t>
+  </si>
+  <si>
+    <t>Vcard_DToL17057-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbonyl reductase [NADPH] 3-like [Vanessa cardui]               </t>
+  </si>
+  <si>
+    <t>carbonyl reductase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL17175-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homeobox protein ceh-33-like [Vanessa cardui]                    </t>
+  </si>
+  <si>
+    <t>homeobox ceh-33</t>
+  </si>
+  <si>
+    <t>Vcard_DToL18627-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytochrome P450 307a1 [Vanessa cardui]                           </t>
+  </si>
+  <si>
+    <t>cytochrome P450</t>
+  </si>
+  <si>
+    <t>Vcard_DToL00987</t>
+  </si>
+  <si>
+    <t>Vcard_DToL01221</t>
+  </si>
+  <si>
+    <t>Vcard_DToL01461</t>
+  </si>
+  <si>
+    <t>Vcard_DToL04556</t>
+  </si>
+  <si>
+    <t>Vcard_DToL05461</t>
+  </si>
+  <si>
+    <t>Vcard_DToL05597</t>
+  </si>
+  <si>
+    <t>Vcard_DToL06859</t>
+  </si>
+  <si>
+    <t>Vcard_DToL07084</t>
+  </si>
+  <si>
+    <t>Vcard_DToL07089</t>
+  </si>
+  <si>
+    <t>Vcard_DToL07962</t>
+  </si>
+  <si>
+    <t>Vcard_DToL07964</t>
+  </si>
+  <si>
+    <t>Vcard_DToL08950</t>
+  </si>
+  <si>
+    <t>Vcard_DToL09711</t>
+  </si>
+  <si>
+    <t>Vcard_DToL10297</t>
+  </si>
+  <si>
+    <t>Vcard_DToL11994</t>
+  </si>
+  <si>
+    <t>Vcard_DToL12126</t>
+  </si>
+  <si>
+    <t>Vcard_DToL12491</t>
+  </si>
+  <si>
+    <t>Vcard_DToL13220</t>
+  </si>
+  <si>
+    <t>Vcard_DToL13737</t>
+  </si>
+  <si>
+    <t>Vcard_DToL14428</t>
+  </si>
+  <si>
+    <t>Vcard_DToL15621</t>
+  </si>
+  <si>
+    <t>Vcard_DToL16441</t>
+  </si>
+  <si>
+    <t>Vcard_DToL17057</t>
+  </si>
+  <si>
+    <t>Vcard_DToL17175</t>
+  </si>
+  <si>
+    <t>Vcard_DToL18627</t>
+  </si>
+  <si>
+    <t>DOWN</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Abdomen</t>
+  </si>
+  <si>
+    <t>ecdysone</t>
+  </si>
+  <si>
+    <t>adhesion transmembrane protein</t>
+  </si>
+  <si>
+    <t>Vcard_DToL02971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein takeout-like                          </t>
+  </si>
+  <si>
+    <t>takeout</t>
+  </si>
+  <si>
+    <t>Vcard_DToL03156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans-1,2-dihydrobenzene-1,2-diol dehydrogenase-like </t>
+  </si>
+  <si>
+    <t>DHDH</t>
+  </si>
+  <si>
+    <t>ecdysone oxidase-like</t>
+  </si>
+  <si>
+    <t>Vcard_DToL06652</t>
+  </si>
+  <si>
+    <t>protein CEBPZOS-like isoform X2</t>
+  </si>
+  <si>
+    <t>CEBPZOS</t>
+  </si>
+  <si>
+    <t>Vcard_DToL06735</t>
+  </si>
+  <si>
+    <t>NID-1</t>
+  </si>
+  <si>
+    <t>Vcard_DToL15409</t>
+  </si>
+  <si>
+    <t>dynein regulatory complex subunit 4</t>
+  </si>
+  <si>
+    <t>dynein (DRC)</t>
+  </si>
+  <si>
+    <t>attacin-B-like [Vanessa cardui]</t>
+  </si>
+  <si>
+    <t>Vcard_DToL15625</t>
+  </si>
+  <si>
+    <t>Vcard_DToL17895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dioxygenase tasH-like [Vanessa cardui] </t>
+  </si>
+  <si>
+    <t>dioxygenase tasH</t>
+  </si>
+  <si>
+    <t>Hormonal regulation</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Sensing</t>
+  </si>
+  <si>
+    <t>Development?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sperm mobility and </t>
+  </si>
+  <si>
+    <t>Methabolism</t>
+  </si>
+  <si>
+    <t>TLR</t>
+  </si>
+  <si>
+    <t>ALT (GPT)</t>
+  </si>
+  <si>
+    <t>Hox</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>METTl???</t>
+  </si>
+  <si>
+    <t>Methabolism/Digestion</t>
+  </si>
+  <si>
+    <t>focused on the regulation of neurotransmitter release</t>
+  </si>
+  <si>
+    <t>Sensing/TIming</t>
+  </si>
+  <si>
+    <t>uncharacterized SOSS complex subunit B homolog</t>
+  </si>
+  <si>
+    <t>Fat methabolism</t>
+  </si>
+  <si>
+    <t>nitrogen mthobolism</t>
+  </si>
+  <si>
+    <t>metabolism of various fatty acids</t>
+  </si>
+  <si>
+    <t>Karin?</t>
+  </si>
+  <si>
+    <r>
+      <t>In insects, biliprotein lipocalins generally function to facilitate the changing of colours during camouflage, but other roles of biliproteins in insects have also been found. Functions such as preventing cellular damage, regulating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF795CB2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>guanylyl cyclase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF795CB2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biliverdin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, among other roles associated with metabolic maintenance, have been hypothesised but yet to be proven. In the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF795CB2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tobacco hornworm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, the biliprotein insecticyanin (INS) was found to play a crucial part in embryonic development, as the absorption of INS into the moth eggs was observed.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF795CB2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[6]</t>
+    </r>
+  </si>
+  <si>
+    <t>wing formation, metamorphosis and esdysone synthesis</t>
+  </si>
+  <si>
+    <t>CBR3</t>
+  </si>
+  <si>
+    <t>, toll-</t>
+  </si>
+  <si>
+    <t>Vcard_DToL00585</t>
+  </si>
+  <si>
+    <t>transcriptional regulator prz1</t>
+  </si>
+  <si>
+    <t>Vcard_DToL03150</t>
+  </si>
+  <si>
+    <t>Vcard_DToL04008</t>
+  </si>
+  <si>
+    <t>E3 SUMO-protein ligase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL04054</t>
+  </si>
+  <si>
+    <t>sulfide:quinone oxidoreductase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL04786</t>
+  </si>
+  <si>
+    <t>pickpocket</t>
+  </si>
+  <si>
+    <t>Vcard_DToL06310</t>
+  </si>
+  <si>
+    <t>Vcard_DToL06730</t>
+  </si>
+  <si>
+    <t>neural cell adhesion molecule</t>
+  </si>
+  <si>
+    <t>Vcard_DToL07612</t>
+  </si>
+  <si>
+    <t>Vcard_DToL07723</t>
+  </si>
+  <si>
+    <t>clavesin-1</t>
+  </si>
+  <si>
+    <t>peptidoglycan-recognition protein</t>
+  </si>
+  <si>
+    <t>Vcard_DToL08465</t>
+  </si>
+  <si>
+    <t>15-hydroxyprostaglandin dehydrogenase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL08606</t>
+  </si>
+  <si>
+    <t>tyrosine decarboxylase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL08990</t>
+  </si>
+  <si>
+    <t>glutamine synthetase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL09009</t>
+  </si>
+  <si>
+    <t>hemocytin</t>
+  </si>
+  <si>
+    <t>Vcard_DToL09011</t>
+  </si>
+  <si>
+    <t>Vcard_DToL09507</t>
+  </si>
+  <si>
+    <t>orcokinin</t>
+  </si>
+  <si>
+    <t>Vcard_DToL09894</t>
+  </si>
+  <si>
+    <t>Vcard_DToL10386</t>
+  </si>
+  <si>
+    <t>tektin-2</t>
+  </si>
+  <si>
+    <t>Vcard_DToL10721</t>
+  </si>
+  <si>
+    <t>cytoplasmic binding protein</t>
+  </si>
+  <si>
+    <t>Vcard_DToL11322</t>
+  </si>
+  <si>
+    <t>zinc finger protein</t>
+  </si>
+  <si>
+    <t>Vcard_DToL12837</t>
+  </si>
+  <si>
+    <t>gooseberry-neuro</t>
+  </si>
+  <si>
+    <t>Vcard_DToL13223</t>
+  </si>
+  <si>
+    <t>Vcard_DToL13632</t>
+  </si>
+  <si>
+    <t>seminal fluid protein HACP013</t>
+  </si>
+  <si>
+    <t>Vcard_DToL15079</t>
+  </si>
+  <si>
+    <t>atrial natriuretic peptide receptor</t>
+  </si>
+  <si>
+    <t>Vcard_DToL15151</t>
+  </si>
+  <si>
+    <t>thioredoxi</t>
+  </si>
+  <si>
+    <t>Vcard_DToL15410</t>
+  </si>
+  <si>
+    <t>Vcard_DToL15472</t>
+  </si>
+  <si>
+    <t>B1 protein</t>
+  </si>
+  <si>
+    <t>Vcard_DToL16096</t>
+  </si>
+  <si>
+    <t>Vcard_DToL16207</t>
+  </si>
+  <si>
+    <t>Vcard_DToL16791</t>
+  </si>
+  <si>
+    <t>trehalose transporter Tret1-2</t>
+  </si>
+  <si>
+    <t>Vcard_DToL17225</t>
+  </si>
+  <si>
+    <t>NADH dehydrogenase ubiquinone</t>
+  </si>
+  <si>
+    <t>Vcard_DToL17518</t>
+  </si>
+  <si>
+    <t>coiled-coil domain</t>
+  </si>
+  <si>
+    <t>Vcard_DToL17607</t>
+  </si>
+  <si>
+    <t>chitinase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL18414</t>
+  </si>
+  <si>
+    <t>D-arabinitol dehydrogenase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL03953</t>
+  </si>
+  <si>
+    <t>Vcard_DToL06823</t>
+  </si>
+  <si>
+    <t>trehalose transporter Tret1</t>
+  </si>
+  <si>
+    <t>Vcard_DToL08083</t>
+  </si>
+  <si>
+    <t>zinc finger MYM-type</t>
+  </si>
+  <si>
+    <t>Vcard_DToL08161</t>
+  </si>
+  <si>
+    <t>esterase FE4-like</t>
+  </si>
+  <si>
+    <t>Vcard_DToL08455</t>
+  </si>
+  <si>
+    <t>odorant receptor 4</t>
+  </si>
+  <si>
+    <t>Vcard_DToL17922</t>
+  </si>
+  <si>
+    <t>UDP-glucosyltransferase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -407,6 +1134,93 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF999999"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF795CB2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF795CB2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -442,7 +1256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -529,6 +1343,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,11 +1819,3262 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0608F662-6017-B34B-9C7B-C9EDE3A5F3CD}">
+  <dimension ref="A1:K80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="41" customWidth="1"/>
+    <col min="4" max="7" width="10.83203125" style="82"/>
+    <col min="8" max="9" width="10.83203125" style="97"/>
+    <col min="10" max="10" width="21.5" style="99" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="87">
+        <v>284.95896573144199</v>
+      </c>
+      <c r="E2" s="87">
+        <v>-3.0000242995936501</v>
+      </c>
+      <c r="F2" s="87">
+        <v>0.47753370164473402</v>
+      </c>
+      <c r="G2" s="87">
+        <v>-6.2823299994552997</v>
+      </c>
+      <c r="H2" s="95">
+        <v>3.33535910044047E-10</v>
+      </c>
+      <c r="I2" s="95">
+        <v>1.9959181252224E-7</v>
+      </c>
+      <c r="J2" s="79"/>
+      <c r="K2" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="87">
+        <v>1622.99609451174</v>
+      </c>
+      <c r="E3" s="87">
+        <v>-2.3078133967689198</v>
+      </c>
+      <c r="F3" s="87">
+        <v>0.471005382750386</v>
+      </c>
+      <c r="G3" s="87">
+        <v>-4.8997601328729896</v>
+      </c>
+      <c r="H3" s="95">
+        <v>9.5953729406319592E-7</v>
+      </c>
+      <c r="I3" s="95">
+        <v>2.1220375853271499E-4</v>
+      </c>
+      <c r="J3" s="79" t="s">
+        <v>253</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="87">
+        <v>420.204347743764</v>
+      </c>
+      <c r="E4" s="87">
+        <v>-2.3743876008160001</v>
+      </c>
+      <c r="F4" s="87">
+        <v>0.40037089756120797</v>
+      </c>
+      <c r="G4" s="87">
+        <v>-5.9304700098812901</v>
+      </c>
+      <c r="H4" s="95">
+        <v>3.0206875407034001E-9</v>
+      </c>
+      <c r="I4" s="95">
+        <v>1.28039393131565E-6</v>
+      </c>
+      <c r="J4" s="79"/>
+      <c r="K4" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="84">
+        <v>403.67240280727202</v>
+      </c>
+      <c r="E5" s="84">
+        <v>3.04034063052835</v>
+      </c>
+      <c r="F5" s="84">
+        <v>0.51680479248273503</v>
+      </c>
+      <c r="G5" s="84">
+        <v>5.8829575010760404</v>
+      </c>
+      <c r="H5" s="92">
+        <v>4.0299943407317202E-9</v>
+      </c>
+      <c r="I5" s="92">
+        <v>1.6398852971305499E-6</v>
+      </c>
+      <c r="J5" s="62"/>
+      <c r="K5" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="83">
+        <v>25.560590000000001</v>
+      </c>
+      <c r="E6" s="83">
+        <v>-8.3112619999999993</v>
+      </c>
+      <c r="F6" s="83">
+        <v>2.1304124999999998</v>
+      </c>
+      <c r="G6" s="83">
+        <v>-3.9012449999999999</v>
+      </c>
+      <c r="H6" s="91">
+        <v>9.5699079999999999E-5</v>
+      </c>
+      <c r="I6" s="90">
+        <v>1.65194E-2</v>
+      </c>
+      <c r="J6" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="83">
+        <v>16.481030000000001</v>
+      </c>
+      <c r="E7" s="83">
+        <v>-7.8795320000000002</v>
+      </c>
+      <c r="F7" s="83">
+        <v>2.2032039999999999</v>
+      </c>
+      <c r="G7" s="83">
+        <v>-3.576397</v>
+      </c>
+      <c r="H7" s="91">
+        <v>3.4836239999999998E-4</v>
+      </c>
+      <c r="I7" s="91">
+        <v>2.644695E-2</v>
+      </c>
+      <c r="J7" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="K7" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="83">
+        <v>117.05943000000001</v>
+      </c>
+      <c r="E8" s="83">
+        <v>-7.671837</v>
+      </c>
+      <c r="F8" s="83">
+        <v>1.5133118999999999</v>
+      </c>
+      <c r="G8" s="83">
+        <v>-5.0695680000000003</v>
+      </c>
+      <c r="H8" s="91">
+        <v>3.9871969999999998E-7</v>
+      </c>
+      <c r="I8" s="90">
+        <v>1.8633500000000001E-4</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="83">
+        <v>978.46037000000001</v>
+      </c>
+      <c r="E9" s="83">
+        <v>-7.616015</v>
+      </c>
+      <c r="F9" s="83">
+        <v>1.9815579999999999</v>
+      </c>
+      <c r="G9" s="83">
+        <v>-3.843448</v>
+      </c>
+      <c r="H9" s="91">
+        <v>1.2131780000000001E-4</v>
+      </c>
+      <c r="I9" s="91">
+        <v>1.1118609999999999E-2</v>
+      </c>
+      <c r="J9" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="K9" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="83">
+        <v>1150.4045000000001</v>
+      </c>
+      <c r="E10" s="83">
+        <v>-7.5667350000000004</v>
+      </c>
+      <c r="F10" s="83">
+        <v>1.2172247</v>
+      </c>
+      <c r="G10" s="83">
+        <v>-6.2163830000000004</v>
+      </c>
+      <c r="H10" s="91">
+        <v>5.0874469999999999E-10</v>
+      </c>
+      <c r="I10" s="90">
+        <v>1.207505E-6</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="83">
+        <v>110.55362</v>
+      </c>
+      <c r="E11" s="83">
+        <v>-6.3992550000000001</v>
+      </c>
+      <c r="F11" s="83">
+        <v>0.83139600000000002</v>
+      </c>
+      <c r="G11" s="83">
+        <v>-7.6970010000000002</v>
+      </c>
+      <c r="H11" s="91">
+        <v>1.392973E-14</v>
+      </c>
+      <c r="I11" s="90">
+        <v>1.3224889999999999E-10</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="K11" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="88">
+        <v>261.66836175716099</v>
+      </c>
+      <c r="E12" s="88">
+        <v>-6.2511723104845203</v>
+      </c>
+      <c r="F12" s="88">
+        <v>0.75920578137853201</v>
+      </c>
+      <c r="G12" s="88">
+        <v>-8.2338312797538595</v>
+      </c>
+      <c r="H12" s="96">
+        <v>1.8131901678007601E-16</v>
+      </c>
+      <c r="I12" s="96">
+        <v>3.0742639295061801E-13</v>
+      </c>
+      <c r="J12" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="K12" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="83">
+        <v>25.15024</v>
+      </c>
+      <c r="E13" s="83">
+        <v>-6.0466249999999997</v>
+      </c>
+      <c r="F13" s="83">
+        <v>1.3719564</v>
+      </c>
+      <c r="G13" s="83">
+        <v>-4.4073010000000004</v>
+      </c>
+      <c r="H13" s="91">
+        <v>1.046666E-5</v>
+      </c>
+      <c r="I13" s="90">
+        <v>3.105329E-3</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="83">
+        <v>22.635100000000001</v>
+      </c>
+      <c r="E14" s="83">
+        <v>-5.4921850000000001</v>
+      </c>
+      <c r="F14" s="83">
+        <v>1.6238798999999999</v>
+      </c>
+      <c r="G14" s="83">
+        <v>-3.3821370000000002</v>
+      </c>
+      <c r="H14" s="91">
+        <v>7.1924200000000004E-4</v>
+      </c>
+      <c r="I14" s="91">
+        <v>4.381347E-2</v>
+      </c>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="84">
+        <v>110.317160665004</v>
+      </c>
+      <c r="E15" s="84">
+        <v>4.9401834010722903</v>
+      </c>
+      <c r="F15" s="84">
+        <v>0.80973637175136703</v>
+      </c>
+      <c r="G15" s="84">
+        <v>6.1009775198651797</v>
+      </c>
+      <c r="H15" s="92">
+        <v>1.0542173590858799E-9</v>
+      </c>
+      <c r="I15" s="92">
+        <v>5.4346107162452903E-7</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="87">
+        <v>81.471582528583596</v>
+      </c>
+      <c r="E16" s="87">
+        <v>-3.6236245338744699</v>
+      </c>
+      <c r="F16" s="87">
+        <v>0.70245868385085297</v>
+      </c>
+      <c r="G16" s="87">
+        <v>-5.15848777612071</v>
+      </c>
+      <c r="H16" s="95">
+        <v>2.4895235815906802E-7</v>
+      </c>
+      <c r="I16" s="95">
+        <v>6.1770544867126705E-5</v>
+      </c>
+      <c r="J16" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="83">
+        <v>106.4192</v>
+      </c>
+      <c r="E17" s="83">
+        <v>-5.2238509999999998</v>
+      </c>
+      <c r="F17" s="83">
+        <v>0.96391130000000003</v>
+      </c>
+      <c r="G17" s="83">
+        <v>-5.4194310000000003</v>
+      </c>
+      <c r="H17" s="91">
+        <v>5.9788909999999998E-8</v>
+      </c>
+      <c r="I17" s="91">
+        <v>3.5477250000000003E-5</v>
+      </c>
+      <c r="J17" s="101" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="87">
+        <v>155.78146724578801</v>
+      </c>
+      <c r="E18" s="87">
+        <v>-4.8813446283359099</v>
+      </c>
+      <c r="F18" s="87">
+        <v>0.80080260898850397</v>
+      </c>
+      <c r="G18" s="87">
+        <v>-6.0955653410040096</v>
+      </c>
+      <c r="H18" s="95">
+        <v>1.09051356411186E-9</v>
+      </c>
+      <c r="I18" s="95">
+        <v>5.4346107162452903E-7</v>
+      </c>
+      <c r="J18" s="79" t="s">
+        <v>253</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="87">
+        <v>247.45824345490701</v>
+      </c>
+      <c r="E19" s="87">
+        <v>-2.5816183311890502</v>
+      </c>
+      <c r="F19" s="87">
+        <v>0.56699079369869598</v>
+      </c>
+      <c r="G19" s="87">
+        <v>-4.5531926794581103</v>
+      </c>
+      <c r="H19" s="95">
+        <v>5.2837837605893898E-6</v>
+      </c>
+      <c r="I19" s="95">
+        <v>8.9586553660793097E-4</v>
+      </c>
+      <c r="J19" s="79" t="s">
+        <v>253</v>
+      </c>
+      <c r="K19" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="87">
+        <v>772.05109409978502</v>
+      </c>
+      <c r="E20" s="87">
+        <v>-2.1385240435877799</v>
+      </c>
+      <c r="F20" s="87">
+        <v>0.31705108126821402</v>
+      </c>
+      <c r="G20" s="87">
+        <v>-6.74504573532323</v>
+      </c>
+      <c r="H20" s="95">
+        <v>1.5297882887301799E-11</v>
+      </c>
+      <c r="I20" s="95">
+        <v>1.19711817394247E-8</v>
+      </c>
+      <c r="J20" s="79" t="s">
+        <v>253</v>
+      </c>
+      <c r="K20" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="83">
+        <v>318.86131</v>
+      </c>
+      <c r="E21" s="83">
+        <v>5.0544289999999998</v>
+      </c>
+      <c r="F21" s="83">
+        <v>1.2587387999999999</v>
+      </c>
+      <c r="G21" s="83">
+        <v>4.0154699999999997</v>
+      </c>
+      <c r="H21" s="91">
+        <v>5.9327329999999999E-5</v>
+      </c>
+      <c r="I21" s="90">
+        <v>1.173445E-2</v>
+      </c>
+      <c r="K21" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="87">
+        <v>1093.7839886249999</v>
+      </c>
+      <c r="E22" s="87">
+        <v>-2.2426531463608299</v>
+      </c>
+      <c r="F22" s="87">
+        <v>0.41939278744099201</v>
+      </c>
+      <c r="G22" s="87">
+        <v>-5.3473812939054701</v>
+      </c>
+      <c r="H22" s="95">
+        <v>8.9235898931339202E-8</v>
+      </c>
+      <c r="I22" s="95">
+        <v>2.5216577773014301E-5</v>
+      </c>
+      <c r="J22" s="79" t="s">
+        <v>246</v>
+      </c>
+      <c r="K22" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="84">
+        <v>2368.00886568543</v>
+      </c>
+      <c r="E23" s="84">
+        <v>5.1332736848635001</v>
+      </c>
+      <c r="F23" s="84">
+        <v>0.26901088382749799</v>
+      </c>
+      <c r="G23" s="84">
+        <v>19.082029737336502</v>
+      </c>
+      <c r="H23" s="92">
+        <v>3.5615540399431399E-81</v>
+      </c>
+      <c r="I23" s="92">
+        <v>3.62316892483416E-77</v>
+      </c>
+      <c r="J23" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
+      <c r="A24" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="83">
+        <v>1119.8621499999999</v>
+      </c>
+      <c r="E24" s="83">
+        <v>5.1668459999999996</v>
+      </c>
+      <c r="F24" s="83">
+        <v>0.92655399999999999</v>
+      </c>
+      <c r="G24" s="83">
+        <v>5.5764110000000002</v>
+      </c>
+      <c r="H24" s="91">
+        <v>2.455314E-8</v>
+      </c>
+      <c r="I24" s="90">
+        <v>1.7931349999999999E-5</v>
+      </c>
+      <c r="J24" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="83">
+        <v>976.57938999999999</v>
+      </c>
+      <c r="E25" s="83">
+        <v>5.191878</v>
+      </c>
+      <c r="F25" s="83">
+        <v>1.2945525</v>
+      </c>
+      <c r="G25" s="83">
+        <v>4.0105579999999996</v>
+      </c>
+      <c r="H25" s="91">
+        <v>6.0575319999999997E-5</v>
+      </c>
+      <c r="I25" s="91">
+        <v>6.3312179999999996E-3</v>
+      </c>
+      <c r="J25" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="83">
+        <v>247.90329</v>
+      </c>
+      <c r="E26" s="83">
+        <v>5.2227030000000001</v>
+      </c>
+      <c r="F26" s="83">
+        <v>0.91263139999999998</v>
+      </c>
+      <c r="G26" s="83">
+        <v>5.7226860000000004</v>
+      </c>
+      <c r="H26" s="91">
+        <v>1.0485290000000001E-8</v>
+      </c>
+      <c r="I26" s="90">
+        <v>9.9547350000000005E-6</v>
+      </c>
+      <c r="J26" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="83">
+        <v>219.09562</v>
+      </c>
+      <c r="E27" s="83">
+        <v>5.2390509999999999</v>
+      </c>
+      <c r="F27" s="83">
+        <v>1.244907</v>
+      </c>
+      <c r="G27" s="83">
+        <v>4.2083880000000002</v>
+      </c>
+      <c r="H27" s="91">
+        <v>2.5719919999999999E-5</v>
+      </c>
+      <c r="I27" s="91">
+        <v>6.291268E-3</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="K27" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="84">
+        <v>1071.4380348398699</v>
+      </c>
+      <c r="E28" s="84">
+        <v>2.9264249086262</v>
+      </c>
+      <c r="F28" s="84">
+        <v>0.33306340641618198</v>
+      </c>
+      <c r="G28" s="84">
+        <v>8.7863897751933404</v>
+      </c>
+      <c r="H28" s="92">
+        <v>1.5444307553026E-18</v>
+      </c>
+      <c r="I28" s="92">
+        <v>3.9278735184233398E-15</v>
+      </c>
+      <c r="J28" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="83">
+        <v>2733.7078200000001</v>
+      </c>
+      <c r="E29" s="83">
+        <v>5.2893540000000003</v>
+      </c>
+      <c r="F29" s="83">
+        <v>1.3621341</v>
+      </c>
+      <c r="G29" s="83">
+        <v>3.8831380000000002</v>
+      </c>
+      <c r="H29" s="91">
+        <v>1.031171E-4</v>
+      </c>
+      <c r="I29" s="90">
+        <v>1.7482029999999999E-2</v>
+      </c>
+      <c r="J29" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="K29" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="A30" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="86">
+        <v>2716.3798874865502</v>
+      </c>
+      <c r="E30" s="86">
+        <v>-2.03214501234861</v>
+      </c>
+      <c r="F30" s="86">
+        <v>0.26367940166523901</v>
+      </c>
+      <c r="G30" s="86">
+        <v>-7.7068781236411299</v>
+      </c>
+      <c r="H30" s="94">
+        <v>1.2893282312587401E-14</v>
+      </c>
+      <c r="I30" s="94">
+        <v>1.6395420120743899E-11</v>
+      </c>
+      <c r="J30" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="83">
+        <v>1563.1700900000001</v>
+      </c>
+      <c r="E31" s="83">
+        <v>5.4169140000000002</v>
+      </c>
+      <c r="F31" s="83">
+        <v>0.89861760000000002</v>
+      </c>
+      <c r="G31" s="83">
+        <v>6.0280519999999997</v>
+      </c>
+      <c r="H31" s="91">
+        <v>1.6594740000000001E-9</v>
+      </c>
+      <c r="I31" s="90">
+        <v>2.2507209999999998E-6</v>
+      </c>
+      <c r="J31" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="84">
+        <v>1816.2084046181801</v>
+      </c>
+      <c r="E32" s="84">
+        <v>5.5455278354594002</v>
+      </c>
+      <c r="F32" s="84">
+        <v>0.97989390184545799</v>
+      </c>
+      <c r="G32" s="84">
+        <v>5.6593145696849101</v>
+      </c>
+      <c r="H32" s="92">
+        <v>1.5197875963469701E-8</v>
+      </c>
+      <c r="I32" s="92">
+        <v>5.52171400629919E-6</v>
+      </c>
+      <c r="J32" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1">
+      <c r="A33" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="84">
+        <v>3412.6496396832299</v>
+      </c>
+      <c r="E33" s="84">
+        <v>5.6834692292715001</v>
+      </c>
+      <c r="F33" s="84">
+        <v>0.39016616955567301</v>
+      </c>
+      <c r="G33" s="84">
+        <v>14.566791466681799</v>
+      </c>
+      <c r="H33" s="92">
+        <v>4.5684933256888497E-48</v>
+      </c>
+      <c r="I33" s="92">
+        <v>1.5491760867410901E-44</v>
+      </c>
+      <c r="J33" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
+      <c r="A34" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="87">
+        <v>56.683739758549599</v>
+      </c>
+      <c r="E34" s="87">
+        <v>-4.6674616862185596</v>
+      </c>
+      <c r="F34" s="87">
+        <v>0.83965418056176699</v>
+      </c>
+      <c r="G34" s="87">
+        <v>-5.5587905047954598</v>
+      </c>
+      <c r="H34" s="95">
+        <v>2.71650518184833E-8</v>
+      </c>
+      <c r="I34" s="95">
+        <v>9.2116690716476799E-6</v>
+      </c>
+      <c r="J34" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="K34" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
+      <c r="A35" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="84">
+        <v>182.32916366416799</v>
+      </c>
+      <c r="E35" s="84">
+        <v>4.4664709736823101</v>
+      </c>
+      <c r="F35" s="84">
+        <v>0.56684203333346395</v>
+      </c>
+      <c r="G35" s="84">
+        <v>7.8795691057278496</v>
+      </c>
+      <c r="H35" s="92">
+        <v>3.2851196984951201E-15</v>
+      </c>
+      <c r="I35" s="92">
+        <v>4.7742175275415496E-12</v>
+      </c>
+      <c r="J35" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="83">
+        <v>996.32524000000001</v>
+      </c>
+      <c r="E36" s="83">
+        <v>5.7149749999999999</v>
+      </c>
+      <c r="F36" s="83">
+        <v>1.3832761</v>
+      </c>
+      <c r="G36" s="83">
+        <v>4.1314780000000004</v>
+      </c>
+      <c r="H36" s="91">
+        <v>3.6043839999999998E-5</v>
+      </c>
+      <c r="I36" s="91">
+        <v>8.1476229999999997E-3</v>
+      </c>
+      <c r="J36" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1">
+      <c r="A37" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="83">
+        <v>73.849140000000006</v>
+      </c>
+      <c r="E37" s="83">
+        <v>5.7686999999999999</v>
+      </c>
+      <c r="F37" s="83">
+        <v>1.4350590000000001</v>
+      </c>
+      <c r="G37" s="83">
+        <v>4.0198340000000004</v>
+      </c>
+      <c r="H37" s="91">
+        <v>5.8239049999999999E-5</v>
+      </c>
+      <c r="I37" s="90">
+        <v>1.173445E-2</v>
+      </c>
+      <c r="J37" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="83">
+        <v>60.299190000000003</v>
+      </c>
+      <c r="E38" s="83">
+        <v>5.8175739999999996</v>
+      </c>
+      <c r="F38" s="83">
+        <v>1.7510813999999999</v>
+      </c>
+      <c r="G38" s="83">
+        <v>3.3222749999999999</v>
+      </c>
+      <c r="H38" s="91">
+        <v>8.9286669999999999E-4</v>
+      </c>
+      <c r="I38" s="91">
+        <v>4.9907319999999998E-2</v>
+      </c>
+      <c r="J38" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="83">
+        <v>242.96446</v>
+      </c>
+      <c r="E39" s="83">
+        <v>6.0010490000000001</v>
+      </c>
+      <c r="F39" s="83">
+        <v>0.82557720000000001</v>
+      </c>
+      <c r="G39" s="83">
+        <v>7.2689130000000004</v>
+      </c>
+      <c r="H39" s="91">
+        <v>3.6239120000000002E-13</v>
+      </c>
+      <c r="I39" s="90">
+        <v>1.720271E-9</v>
+      </c>
+      <c r="J39" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="K39" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="84">
+        <v>4912.5661809048497</v>
+      </c>
+      <c r="E40" s="84">
+        <v>3.75881853549209</v>
+      </c>
+      <c r="F40" s="84">
+        <v>0.433805332349393</v>
+      </c>
+      <c r="G40" s="84">
+        <v>8.6647587182369605</v>
+      </c>
+      <c r="H40" s="92">
+        <v>4.5247023894103399E-18</v>
+      </c>
+      <c r="I40" s="92">
+        <v>9.2059594814942693E-15</v>
+      </c>
+      <c r="J40" s="62"/>
+      <c r="K40" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="87">
+        <v>179.99408896566001</v>
+      </c>
+      <c r="E41" s="87">
+        <v>-3.3995923329612898</v>
+      </c>
+      <c r="F41" s="87">
+        <v>0.5879012088344</v>
+      </c>
+      <c r="G41" s="87">
+        <v>-5.7825911596635002</v>
+      </c>
+      <c r="H41" s="95">
+        <v>7.3558684229058902E-9</v>
+      </c>
+      <c r="I41" s="95">
+        <v>2.8781249794700602E-6</v>
+      </c>
+      <c r="J41" s="79"/>
+      <c r="K41" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="87">
+        <v>256.86447558416597</v>
+      </c>
+      <c r="E42" s="87">
+        <v>-3.3223843028243101</v>
+      </c>
+      <c r="F42" s="87">
+        <v>0.61864892358028301</v>
+      </c>
+      <c r="G42" s="87">
+        <v>-5.3703872684313501</v>
+      </c>
+      <c r="H42" s="95">
+        <v>7.8567735251165304E-8</v>
+      </c>
+      <c r="I42" s="95">
+        <v>2.2836273448860099E-5</v>
+      </c>
+      <c r="J42" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="K42" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="83">
+        <v>184.17633000000001</v>
+      </c>
+      <c r="E43" s="83">
+        <v>6.3607310000000004</v>
+      </c>
+      <c r="F43" s="83">
+        <v>1.6257862999999999</v>
+      </c>
+      <c r="G43" s="83">
+        <v>3.9124029999999999</v>
+      </c>
+      <c r="H43" s="91">
+        <v>9.1382250000000004E-5</v>
+      </c>
+      <c r="I43" s="91">
+        <v>1.6479029999999999E-2</v>
+      </c>
+      <c r="J43" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="K43" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="84">
+        <v>9835.7908508130004</v>
+      </c>
+      <c r="E44" s="84">
+        <v>4.4619818333276502</v>
+      </c>
+      <c r="F44" s="84">
+        <v>0.24844283482653501</v>
+      </c>
+      <c r="G44" s="84">
+        <v>17.9597927887236</v>
+      </c>
+      <c r="H44" s="92">
+        <v>4.0230677172011798E-72</v>
+      </c>
+      <c r="I44" s="92">
+        <v>2.0463333943543799E-68</v>
+      </c>
+      <c r="J44" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="83">
+        <v>25682.549319999998</v>
+      </c>
+      <c r="E45" s="83">
+        <v>6.4405279999999996</v>
+      </c>
+      <c r="F45" s="83">
+        <v>1.1393933000000001</v>
+      </c>
+      <c r="G45" s="83">
+        <v>5.6525939999999997</v>
+      </c>
+      <c r="H45" s="91">
+        <v>1.5804419999999999E-8</v>
+      </c>
+      <c r="I45" s="91">
+        <v>1.364065E-5</v>
+      </c>
+      <c r="J45" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="K45" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="84">
+        <v>225.770013177116</v>
+      </c>
+      <c r="E46" s="84">
+        <v>2.37633655840034</v>
+      </c>
+      <c r="F46" s="84">
+        <v>0.51528517215855396</v>
+      </c>
+      <c r="G46" s="84">
+        <v>4.6116921013771002</v>
+      </c>
+      <c r="H46" s="92">
+        <v>3.9940430629290197E-6</v>
+      </c>
+      <c r="I46" s="92">
+        <v>7.1283158033643703E-4</v>
+      </c>
+      <c r="J46" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K46" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="84">
+        <v>143.02149262110899</v>
+      </c>
+      <c r="E47" s="84">
+        <v>2.9666249775967901</v>
+      </c>
+      <c r="F47" s="84">
+        <v>0.63769087393667701</v>
+      </c>
+      <c r="G47" s="84">
+        <v>4.6521364799888696</v>
+      </c>
+      <c r="H47" s="92">
+        <v>3.28513526451245E-6</v>
+      </c>
+      <c r="I47" s="92">
+        <v>6.4268617395932899E-4</v>
+      </c>
+      <c r="J47" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="84">
+        <v>115.450077750011</v>
+      </c>
+      <c r="E48" s="84">
+        <v>6.6345475704571601</v>
+      </c>
+      <c r="F48" s="84">
+        <v>0.95691044268736702</v>
+      </c>
+      <c r="G48" s="84">
+        <v>6.9333004161025098</v>
+      </c>
+      <c r="H48" s="92">
+        <v>4.1113381453198003E-12</v>
+      </c>
+      <c r="I48" s="92">
+        <v>3.8022402683943904E-9</v>
+      </c>
+      <c r="J48" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="K48" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="83">
+        <v>67.754900000000006</v>
+      </c>
+      <c r="E49" s="83">
+        <v>8.4445230000000002</v>
+      </c>
+      <c r="F49" s="83">
+        <v>2.3967727999999999</v>
+      </c>
+      <c r="G49" s="83">
+        <v>3.5232890000000001</v>
+      </c>
+      <c r="H49" s="91">
+        <v>4.2622679999999998E-4</v>
+      </c>
+      <c r="I49" s="91">
+        <v>3.0971470000000001E-2</v>
+      </c>
+      <c r="J49" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="K49" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="87">
+        <v>164.29569638399499</v>
+      </c>
+      <c r="E50" s="87">
+        <v>-3.1881841902658001</v>
+      </c>
+      <c r="F50" s="87">
+        <v>0.64735715504291202</v>
+      </c>
+      <c r="G50" s="87">
+        <v>-4.9249230744263004</v>
+      </c>
+      <c r="H50" s="95">
+        <v>8.43935475845762E-7</v>
+      </c>
+      <c r="I50" s="95">
+        <v>1.95121718085885E-4</v>
+      </c>
+      <c r="J50" s="79"/>
+      <c r="K50" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="87">
+        <v>1380.58344961835</v>
+      </c>
+      <c r="E51" s="87">
+        <v>-2.4202225754582201</v>
+      </c>
+      <c r="F51" s="87">
+        <v>0.36339869776467798</v>
+      </c>
+      <c r="G51" s="87">
+        <v>-6.65996491001588</v>
+      </c>
+      <c r="H51" s="95">
+        <v>2.73892969958696E-11</v>
+      </c>
+      <c r="I51" s="95">
+        <v>1.85754212225988E-8</v>
+      </c>
+      <c r="J51" s="79"/>
+      <c r="K51" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="87">
+        <v>893.54785489699202</v>
+      </c>
+      <c r="E52" s="87">
+        <v>-2.5912346947126799</v>
+      </c>
+      <c r="F52" s="87">
+        <v>0.43168391842405801</v>
+      </c>
+      <c r="G52" s="87">
+        <v>-6.0026203991394</v>
+      </c>
+      <c r="H52" s="95">
+        <v>1.9415818629646499E-9</v>
+      </c>
+      <c r="I52" s="95">
+        <v>8.9780510417906096E-7</v>
+      </c>
+      <c r="J52" s="79"/>
+      <c r="K52" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="87">
+        <v>491.43953187039801</v>
+      </c>
+      <c r="E53" s="87">
+        <v>-2.58832870243149</v>
+      </c>
+      <c r="F53" s="87">
+        <v>0.38803366619621299</v>
+      </c>
+      <c r="G53" s="87">
+        <v>-6.6703714855573404</v>
+      </c>
+      <c r="H53" s="95">
+        <v>2.5515672589456299E-11</v>
+      </c>
+      <c r="I53" s="95">
+        <v>1.85407812323242E-8</v>
+      </c>
+      <c r="J53" s="79"/>
+      <c r="K53" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="83">
+        <v>78.508809999999997</v>
+      </c>
+      <c r="E54" s="83">
+        <v>7.1762300000000003</v>
+      </c>
+      <c r="F54" s="83">
+        <v>1.4000283</v>
+      </c>
+      <c r="G54" s="83">
+        <v>5.125775</v>
+      </c>
+      <c r="H54" s="91">
+        <v>2.9631679999999998E-7</v>
+      </c>
+      <c r="I54" s="90">
+        <v>1.562907E-4</v>
+      </c>
+      <c r="J54" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="K54" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="85">
+        <v>85.656378580674598</v>
+      </c>
+      <c r="E55" s="85">
+        <v>7.3314522387300798</v>
+      </c>
+      <c r="F55" s="85">
+        <v>1.5915805078357701</v>
+      </c>
+      <c r="G55" s="85">
+        <v>4.6063973532192604</v>
+      </c>
+      <c r="H55" s="93">
+        <v>4.0970515741341497E-6</v>
+      </c>
+      <c r="I55" s="93">
+        <v>7.1860871833907998E-4</v>
+      </c>
+      <c r="J55" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="K55" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="83">
+        <v>122.69502</v>
+      </c>
+      <c r="E56" s="83">
+        <v>7.3477839999999999</v>
+      </c>
+      <c r="F56" s="83">
+        <v>1.9940009999999999</v>
+      </c>
+      <c r="G56" s="83">
+        <v>3.6849449999999999</v>
+      </c>
+      <c r="H56" s="91">
+        <v>2.2875200000000001E-4</v>
+      </c>
+      <c r="I56" s="90">
+        <v>3.333941E-2</v>
+      </c>
+      <c r="K56" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="84">
+        <v>245.64607813967601</v>
+      </c>
+      <c r="E57" s="84">
+        <v>7.6889432606900501</v>
+      </c>
+      <c r="F57" s="84">
+        <v>1.11306383917143</v>
+      </c>
+      <c r="G57" s="84">
+        <v>6.9079085943657299</v>
+      </c>
+      <c r="H57" s="92">
+        <v>4.9185070833924696E-12</v>
+      </c>
+      <c r="I57" s="92">
+        <v>4.1696643799459697E-9</v>
+      </c>
+      <c r="J57" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="K57" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="83">
+        <v>160.52493000000001</v>
+      </c>
+      <c r="E58" s="83">
+        <v>8.0656569999999999</v>
+      </c>
+      <c r="F58" s="83">
+        <v>1.5808173000000001</v>
+      </c>
+      <c r="G58" s="83">
+        <v>5.1022069999999999</v>
+      </c>
+      <c r="H58" s="91">
+        <v>3.3571599999999999E-7</v>
+      </c>
+      <c r="I58" s="90">
+        <v>1.6775199999999999E-4</v>
+      </c>
+      <c r="J58" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="K58" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="87">
+        <v>79.258424756644203</v>
+      </c>
+      <c r="E59" s="87">
+        <v>-4.0669173580038098</v>
+      </c>
+      <c r="F59" s="87">
+        <v>0.75533999597635104</v>
+      </c>
+      <c r="G59" s="87">
+        <v>-5.3842208537453704</v>
+      </c>
+      <c r="H59" s="95">
+        <v>7.2759123200461497E-8</v>
+      </c>
+      <c r="I59" s="95">
+        <v>2.1769957656420399E-5</v>
+      </c>
+      <c r="J59" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="K59" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="84">
+        <v>258.35773628726201</v>
+      </c>
+      <c r="E60" s="84">
+        <v>3.0762363677012199</v>
+      </c>
+      <c r="F60" s="84">
+        <v>0.56515047750278702</v>
+      </c>
+      <c r="G60" s="84">
+        <v>5.4432164355484298</v>
+      </c>
+      <c r="H60" s="92">
+        <v>5.23270033585024E-8</v>
+      </c>
+      <c r="I60" s="92">
+        <v>1.7171696940840199E-5</v>
+      </c>
+      <c r="J60" s="62"/>
+      <c r="K60" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="83">
+        <v>942.28189999999995</v>
+      </c>
+      <c r="E61" s="83">
+        <v>8.4905229999999996</v>
+      </c>
+      <c r="F61" s="83">
+        <v>1.5144553999999999</v>
+      </c>
+      <c r="G61" s="83">
+        <v>5.6063210000000003</v>
+      </c>
+      <c r="H61" s="91">
+        <v>2.0667249999999999E-8</v>
+      </c>
+      <c r="I61" s="91">
+        <v>1.635124E-5</v>
+      </c>
+      <c r="J61" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="K61" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="84">
+        <v>147.85992796636799</v>
+      </c>
+      <c r="E62" s="84">
+        <v>2.71566202954667</v>
+      </c>
+      <c r="F62" s="84">
+        <v>0.56647016577369302</v>
+      </c>
+      <c r="G62" s="84">
+        <v>4.7940071580602703</v>
+      </c>
+      <c r="H62" s="92">
+        <v>1.63482436759946E-6</v>
+      </c>
+      <c r="I62" s="92">
+        <v>3.39409556971211E-4</v>
+      </c>
+      <c r="J62" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="K62" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="83">
+        <v>51.446010000000001</v>
+      </c>
+      <c r="E63" s="83">
+        <v>8.5460379999999994</v>
+      </c>
+      <c r="F63" s="83">
+        <v>2.2861935999999998</v>
+      </c>
+      <c r="G63" s="83">
+        <v>3.738108</v>
+      </c>
+      <c r="H63" s="91">
+        <v>1.854104E-4</v>
+      </c>
+      <c r="I63" s="91">
+        <v>1.6401570000000001E-2</v>
+      </c>
+      <c r="J63" s="100" t="s">
+        <v>254</v>
+      </c>
+      <c r="K63" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="84">
+        <v>379.26967226731301</v>
+      </c>
+      <c r="E64" s="84">
+        <v>2.1607012356039599</v>
+      </c>
+      <c r="F64" s="84">
+        <v>0.397393119179205</v>
+      </c>
+      <c r="G64" s="84">
+        <v>5.4371883440427302</v>
+      </c>
+      <c r="H64" s="92">
+        <v>5.4127913085195899E-8</v>
+      </c>
+      <c r="I64" s="92">
+        <v>1.72076018692406E-5</v>
+      </c>
+      <c r="J64" s="62"/>
+      <c r="K64" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="83">
+        <v>24.420839999999998</v>
+      </c>
+      <c r="E65" s="83">
+        <v>8.5534739999999996</v>
+      </c>
+      <c r="F65" s="83">
+        <v>2.4488903</v>
+      </c>
+      <c r="G65" s="83">
+        <v>3.4927959999999998</v>
+      </c>
+      <c r="H65" s="91">
+        <v>4.7799140000000001E-4</v>
+      </c>
+      <c r="I65" s="91">
+        <v>3.3078950000000003E-2</v>
+      </c>
+      <c r="J65" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="K65" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="83">
+        <v>101.73727</v>
+      </c>
+      <c r="E66" s="83">
+        <v>8.8580330000000007</v>
+      </c>
+      <c r="F66" s="83">
+        <v>2.3201553000000001</v>
+      </c>
+      <c r="G66" s="83">
+        <v>3.8178619999999999</v>
+      </c>
+      <c r="H66" s="91">
+        <v>1.3461300000000001E-4</v>
+      </c>
+      <c r="I66" s="90">
+        <v>2.126542E-2</v>
+      </c>
+      <c r="J66" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="K66" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="87">
+        <v>911.28537156227003</v>
+      </c>
+      <c r="E67" s="87">
+        <v>-3.3077677894185999</v>
+      </c>
+      <c r="F67" s="87">
+        <v>0.45193194070618398</v>
+      </c>
+      <c r="G67" s="87">
+        <v>-7.3191724051411899</v>
+      </c>
+      <c r="H67" s="95">
+        <v>2.4950487890006499E-13</v>
+      </c>
+      <c r="I67" s="95">
+        <v>2.8202368145004097E-10</v>
+      </c>
+      <c r="J67" s="79" t="s">
+        <v>246</v>
+      </c>
+      <c r="K67" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="D68" s="83">
+        <v>203.15591000000001</v>
+      </c>
+      <c r="E68" s="83">
+        <v>10.394028</v>
+      </c>
+      <c r="F68" s="83">
+        <v>2.5697268000000002</v>
+      </c>
+      <c r="G68" s="83">
+        <v>4.0447990000000003</v>
+      </c>
+      <c r="H68" s="91">
+        <v>5.2368050000000001E-5</v>
+      </c>
+      <c r="I68" s="91">
+        <v>1.101531E-2</v>
+      </c>
+      <c r="J68" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="K68" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="84">
+        <v>330.32616483679402</v>
+      </c>
+      <c r="E69" s="84">
+        <v>2.2079868584490101</v>
+      </c>
+      <c r="F69" s="84">
+        <v>0.41480595814517002</v>
+      </c>
+      <c r="G69" s="84">
+        <v>5.3229391118733203</v>
+      </c>
+      <c r="H69" s="92">
+        <v>1.0210392909719E-7</v>
+      </c>
+      <c r="I69" s="92">
+        <v>2.80730613704247E-5</v>
+      </c>
+      <c r="J69" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="K69" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="84">
+        <v>862.595032141052</v>
+      </c>
+      <c r="E70" s="84">
+        <v>2.3701048942476901</v>
+      </c>
+      <c r="F70" s="84">
+        <v>0.389113927811502</v>
+      </c>
+      <c r="G70" s="84">
+        <v>6.09103073636531</v>
+      </c>
+      <c r="H70" s="92">
+        <v>1.1218600711800999E-9</v>
+      </c>
+      <c r="I70" s="92">
+        <v>5.4346107162452903E-7</v>
+      </c>
+      <c r="J70" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="K70" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" s="83">
+        <v>7977.0032300000003</v>
+      </c>
+      <c r="E71" s="83">
+        <v>11.031262999999999</v>
+      </c>
+      <c r="F71" s="83">
+        <v>2.8232580999999999</v>
+      </c>
+      <c r="G71" s="83">
+        <v>3.9072809999999998</v>
+      </c>
+      <c r="H71" s="91">
+        <v>9.3340539999999995E-5</v>
+      </c>
+      <c r="I71" s="90">
+        <v>1.6479029999999999E-2</v>
+      </c>
+      <c r="J71" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="K71" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="D72" s="83">
+        <v>886.37937999999997</v>
+      </c>
+      <c r="E72" s="83">
+        <v>14.269050999999999</v>
+      </c>
+      <c r="F72" s="83">
+        <v>3.2682677999999998</v>
+      </c>
+      <c r="G72" s="83">
+        <v>4.3659369999999997</v>
+      </c>
+      <c r="H72" s="91">
+        <v>1.265791E-5</v>
+      </c>
+      <c r="I72" s="90">
+        <v>3.6416420000000001E-3</v>
+      </c>
+      <c r="J72" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="K72" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="83">
+        <v>1600.6429499999999</v>
+      </c>
+      <c r="E73" s="83">
+        <v>15.010524</v>
+      </c>
+      <c r="F73" s="83">
+        <v>2.4314293</v>
+      </c>
+      <c r="G73" s="83">
+        <v>6.1735389999999999</v>
+      </c>
+      <c r="H73" s="91">
+        <v>6.6778069999999996E-10</v>
+      </c>
+      <c r="I73" s="90">
+        <v>1.2679819999999999E-6</v>
+      </c>
+      <c r="J73" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="K73" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="83">
+        <v>132.86127999999999</v>
+      </c>
+      <c r="E74" s="83">
+        <v>21.057963000000001</v>
+      </c>
+      <c r="F74" s="83">
+        <v>5.9480092000000004</v>
+      </c>
+      <c r="G74" s="83">
+        <v>3.5403380000000002</v>
+      </c>
+      <c r="H74" s="91">
+        <v>3.9961499999999997E-4</v>
+      </c>
+      <c r="I74" s="91">
+        <v>2.945857E-2</v>
+      </c>
+      <c r="J74" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="K74" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="83">
+        <v>148.57711</v>
+      </c>
+      <c r="E75" s="83">
+        <v>21.222121000000001</v>
+      </c>
+      <c r="F75" s="83">
+        <v>4.5744407999999996</v>
+      </c>
+      <c r="G75" s="83">
+        <v>4.6392819999999997</v>
+      </c>
+      <c r="H75" s="91">
+        <v>3.4962169999999999E-6</v>
+      </c>
+      <c r="I75" s="90">
+        <v>1.2293740000000001E-3</v>
+      </c>
+      <c r="J75" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="K75" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="87">
+        <v>62.638934452312</v>
+      </c>
+      <c r="E76" s="87">
+        <v>-4.4564916700698998</v>
+      </c>
+      <c r="F76" s="87">
+        <v>0.79441526357875003</v>
+      </c>
+      <c r="G76" s="87">
+        <v>-5.6097759879309397</v>
+      </c>
+      <c r="H76" s="95">
+        <v>2.0258867750988801E-8</v>
+      </c>
+      <c r="I76" s="95">
+        <v>7.1066710907175403E-6</v>
+      </c>
+      <c r="J76" s="79"/>
+      <c r="K76" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" s="65"/>
+      <c r="D77" s="84">
+        <v>437.62046091620601</v>
+      </c>
+      <c r="E77" s="84">
+        <v>2.5974523235436102</v>
+      </c>
+      <c r="F77" s="84">
+        <v>0.56082352325470697</v>
+      </c>
+      <c r="G77" s="84">
+        <v>4.63149674690791</v>
+      </c>
+      <c r="H77" s="92">
+        <v>3.6303170322194101E-6</v>
+      </c>
+      <c r="I77" s="92">
+        <v>6.8391139201422397E-4</v>
+      </c>
+      <c r="J77" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K77" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="89"/>
+      <c r="J78" s="41"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="D79" s="89"/>
+      <c r="E79" s="89"/>
+      <c r="F79" s="89"/>
+      <c r="G79" s="89"/>
+      <c r="J79" s="41"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="J80" s="41"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K80" xr:uid="{4010BD16-0535-9343-8E9C-D37DD0FBD52F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:K59">
+      <sortCondition ref="C1:C80"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61FE750-9E62-464A-888E-73DD5AFE5C66}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23084E33-A760-C04B-819D-57814B23C191}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2097,4 +6325,5287 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F29BF-12A6-6242-8798-DB7816CABFC6}">
+  <dimension ref="A1:T47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="34">
+        <v>110.55362</v>
+      </c>
+      <c r="F2" s="34">
+        <v>-6.3992550000000001</v>
+      </c>
+      <c r="G2" s="34">
+        <v>0.83139600000000002</v>
+      </c>
+      <c r="H2" s="34">
+        <v>-7.6970010000000002</v>
+      </c>
+      <c r="I2" s="36">
+        <v>1.392973E-14</v>
+      </c>
+      <c r="J2" s="37">
+        <v>1.3224889999999999E-10</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="34">
+        <v>25.560590000000001</v>
+      </c>
+      <c r="F3" s="34">
+        <v>-8.3112619999999993</v>
+      </c>
+      <c r="G3" s="34">
+        <v>2.1304124999999998</v>
+      </c>
+      <c r="H3" s="34">
+        <v>-3.9012449999999999</v>
+      </c>
+      <c r="I3" s="36">
+        <v>9.5699079999999999E-5</v>
+      </c>
+      <c r="J3" s="37">
+        <v>1.65194E-2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="34">
+        <v>1150.4045000000001</v>
+      </c>
+      <c r="F4" s="34">
+        <v>-7.5667350000000004</v>
+      </c>
+      <c r="G4" s="34">
+        <v>1.2172247</v>
+      </c>
+      <c r="H4" s="34">
+        <v>-6.2163830000000004</v>
+      </c>
+      <c r="I4" s="36">
+        <v>5.0874469999999999E-10</v>
+      </c>
+      <c r="J4" s="37">
+        <v>1.207505E-6</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="43"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="34">
+        <v>117.05943000000001</v>
+      </c>
+      <c r="F5" s="34">
+        <v>-7.671837</v>
+      </c>
+      <c r="G5" s="34">
+        <v>1.5133118999999999</v>
+      </c>
+      <c r="H5" s="34">
+        <v>-5.0695680000000003</v>
+      </c>
+      <c r="I5" s="36">
+        <v>3.9871969999999998E-7</v>
+      </c>
+      <c r="J5" s="37">
+        <v>1.8633500000000001E-4</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="43"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="34">
+        <v>25.15024</v>
+      </c>
+      <c r="F6" s="34">
+        <v>-6.0466249999999997</v>
+      </c>
+      <c r="G6" s="34">
+        <v>1.3719564</v>
+      </c>
+      <c r="H6" s="34">
+        <v>-4.4073010000000004</v>
+      </c>
+      <c r="I6" s="36">
+        <v>1.046666E-5</v>
+      </c>
+      <c r="J6" s="37">
+        <v>3.105329E-3</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="P6" s="38"/>
+      <c r="T6" s="38"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="34">
+        <v>106.4192</v>
+      </c>
+      <c r="F7" s="34">
+        <v>-5.2238509999999998</v>
+      </c>
+      <c r="G7" s="34">
+        <v>0.96391130000000003</v>
+      </c>
+      <c r="H7" s="34">
+        <v>-5.4194310000000003</v>
+      </c>
+      <c r="I7" s="36">
+        <v>5.9788909999999998E-8</v>
+      </c>
+      <c r="J7" s="36">
+        <v>3.5477250000000003E-5</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="P7" s="38"/>
+      <c r="T7" s="38"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="34">
+        <v>2733.7078200000001</v>
+      </c>
+      <c r="F8" s="34">
+        <v>5.2893540000000003</v>
+      </c>
+      <c r="G8" s="34">
+        <v>1.3621341</v>
+      </c>
+      <c r="H8" s="34">
+        <v>3.8831380000000002</v>
+      </c>
+      <c r="I8" s="36">
+        <v>1.031171E-4</v>
+      </c>
+      <c r="J8" s="37">
+        <v>1.7482029999999999E-2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="P8" s="38"/>
+      <c r="T8" s="38"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="34">
+        <v>122.69502</v>
+      </c>
+      <c r="F9" s="34">
+        <v>7.3477839999999999</v>
+      </c>
+      <c r="G9" s="34">
+        <v>1.9940009999999999</v>
+      </c>
+      <c r="H9" s="34">
+        <v>3.6849449999999999</v>
+      </c>
+      <c r="I9" s="36">
+        <v>2.2875200000000001E-4</v>
+      </c>
+      <c r="J9" s="37">
+        <v>3.333941E-2</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="P9" s="38"/>
+      <c r="T9" s="38"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="34">
+        <v>101.73727</v>
+      </c>
+      <c r="F10" s="34">
+        <v>8.8580330000000007</v>
+      </c>
+      <c r="G10" s="34">
+        <v>2.3201553000000001</v>
+      </c>
+      <c r="H10" s="34">
+        <v>3.8178619999999999</v>
+      </c>
+      <c r="I10" s="36">
+        <v>1.3461300000000001E-4</v>
+      </c>
+      <c r="J10" s="37">
+        <v>2.126542E-2</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="38"/>
+      <c r="T10" s="38"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="34">
+        <v>148.57711</v>
+      </c>
+      <c r="F11" s="34">
+        <v>21.222121000000001</v>
+      </c>
+      <c r="G11" s="34">
+        <v>4.5744407999999996</v>
+      </c>
+      <c r="H11" s="34">
+        <v>4.6392819999999997</v>
+      </c>
+      <c r="I11" s="36">
+        <v>3.4962169999999999E-6</v>
+      </c>
+      <c r="J11" s="37">
+        <v>1.2293740000000001E-3</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="38"/>
+      <c r="T11" s="38"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="34">
+        <v>73.849140000000006</v>
+      </c>
+      <c r="F12" s="34">
+        <v>5.7686999999999999</v>
+      </c>
+      <c r="G12" s="34">
+        <v>1.4350590000000001</v>
+      </c>
+      <c r="H12" s="34">
+        <v>4.0198340000000004</v>
+      </c>
+      <c r="I12" s="36">
+        <v>5.8239049999999999E-5</v>
+      </c>
+      <c r="J12" s="37">
+        <v>1.173445E-2</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="P12" s="38"/>
+      <c r="T12" s="38"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="34">
+        <v>78.508809999999997</v>
+      </c>
+      <c r="F13" s="34">
+        <v>7.1762300000000003</v>
+      </c>
+      <c r="G13" s="34">
+        <v>1.4000283</v>
+      </c>
+      <c r="H13" s="34">
+        <v>5.125775</v>
+      </c>
+      <c r="I13" s="36">
+        <v>2.9631679999999998E-7</v>
+      </c>
+      <c r="J13" s="37">
+        <v>1.562907E-4</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="38"/>
+      <c r="T13" s="38"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="34">
+        <v>247.90329</v>
+      </c>
+      <c r="F14" s="34">
+        <v>5.2227030000000001</v>
+      </c>
+      <c r="G14" s="34">
+        <v>0.91263139999999998</v>
+      </c>
+      <c r="H14" s="34">
+        <v>5.7226860000000004</v>
+      </c>
+      <c r="I14" s="36">
+        <v>1.0485290000000001E-8</v>
+      </c>
+      <c r="J14" s="37">
+        <v>9.9547350000000005E-6</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="P14" s="38"/>
+      <c r="T14" s="38"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="34">
+        <v>1119.8621499999999</v>
+      </c>
+      <c r="F15" s="34">
+        <v>5.1668459999999996</v>
+      </c>
+      <c r="G15" s="34">
+        <v>0.92655399999999999</v>
+      </c>
+      <c r="H15" s="34">
+        <v>5.5764110000000002</v>
+      </c>
+      <c r="I15" s="36">
+        <v>2.455314E-8</v>
+      </c>
+      <c r="J15" s="37">
+        <v>1.7931349999999999E-5</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="P15" s="38"/>
+      <c r="T15" s="38"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="34">
+        <v>1600.6429499999999</v>
+      </c>
+      <c r="F16" s="34">
+        <v>15.010524</v>
+      </c>
+      <c r="G16" s="34">
+        <v>2.4314293</v>
+      </c>
+      <c r="H16" s="34">
+        <v>6.1735389999999999</v>
+      </c>
+      <c r="I16" s="36">
+        <v>6.6778069999999996E-10</v>
+      </c>
+      <c r="J16" s="37">
+        <v>1.2679819999999999E-6</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="34">
+        <v>1563.1700900000001</v>
+      </c>
+      <c r="F17" s="34">
+        <v>5.4169140000000002</v>
+      </c>
+      <c r="G17" s="34">
+        <v>0.89861760000000002</v>
+      </c>
+      <c r="H17" s="34">
+        <v>6.0280519999999997</v>
+      </c>
+      <c r="I17" s="36">
+        <v>1.6594740000000001E-9</v>
+      </c>
+      <c r="J17" s="37">
+        <v>2.2507209999999998E-6</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="P17" s="39"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="34">
+        <v>242.96446</v>
+      </c>
+      <c r="F18" s="34">
+        <v>6.0010490000000001</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0.82557720000000001</v>
+      </c>
+      <c r="H18" s="34">
+        <v>7.2689130000000004</v>
+      </c>
+      <c r="I18" s="36">
+        <v>3.6239120000000002E-13</v>
+      </c>
+      <c r="J18" s="37">
+        <v>1.720271E-9</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="P18" s="42"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="34">
+        <v>318.86131</v>
+      </c>
+      <c r="F19" s="34">
+        <v>5.0544289999999998</v>
+      </c>
+      <c r="G19" s="34">
+        <v>1.2587387999999999</v>
+      </c>
+      <c r="H19" s="34">
+        <v>4.0154699999999997</v>
+      </c>
+      <c r="I19" s="36">
+        <v>5.9327329999999999E-5</v>
+      </c>
+      <c r="J19" s="37">
+        <v>1.173445E-2</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="34">
+        <v>886.37937999999997</v>
+      </c>
+      <c r="F20" s="34">
+        <v>14.269050999999999</v>
+      </c>
+      <c r="G20" s="34">
+        <v>3.2682677999999998</v>
+      </c>
+      <c r="H20" s="34">
+        <v>4.3659369999999997</v>
+      </c>
+      <c r="I20" s="36">
+        <v>1.265791E-5</v>
+      </c>
+      <c r="J20" s="37">
+        <v>3.6416420000000001E-3</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="34">
+        <v>160.52493000000001</v>
+      </c>
+      <c r="F21" s="34">
+        <v>8.0656569999999999</v>
+      </c>
+      <c r="G21" s="34">
+        <v>1.5808173000000001</v>
+      </c>
+      <c r="H21" s="34">
+        <v>5.1022069999999999</v>
+      </c>
+      <c r="I21" s="36">
+        <v>3.3571599999999999E-7</v>
+      </c>
+      <c r="J21" s="37">
+        <v>1.6775199999999999E-4</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="34">
+        <v>7977.0032300000003</v>
+      </c>
+      <c r="F22" s="34">
+        <v>11.031262999999999</v>
+      </c>
+      <c r="G22" s="34">
+        <v>2.8232580999999999</v>
+      </c>
+      <c r="H22" s="34">
+        <v>3.9072809999999998</v>
+      </c>
+      <c r="I22" s="36">
+        <v>9.3340539999999995E-5</v>
+      </c>
+      <c r="J22" s="37">
+        <v>1.6479029999999999E-2</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="34">
+        <v>996.32524000000001</v>
+      </c>
+      <c r="F23" s="34">
+        <v>5.7149749999999999</v>
+      </c>
+      <c r="G23" s="34">
+        <v>1.3832761</v>
+      </c>
+      <c r="H23" s="34">
+        <v>4.1314780000000004</v>
+      </c>
+      <c r="I23" s="36">
+        <v>3.6043839999999998E-5</v>
+      </c>
+      <c r="J23" s="36">
+        <v>8.1476229999999997E-3</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="34">
+        <v>25682.549319999998</v>
+      </c>
+      <c r="F24" s="34">
+        <v>6.4405279999999996</v>
+      </c>
+      <c r="G24" s="34">
+        <v>1.1393933000000001</v>
+      </c>
+      <c r="H24" s="34">
+        <v>5.6525939999999997</v>
+      </c>
+      <c r="I24" s="36">
+        <v>1.5804419999999999E-8</v>
+      </c>
+      <c r="J24" s="36">
+        <v>1.364065E-5</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="34"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="34">
+        <v>184.17633000000001</v>
+      </c>
+      <c r="F25" s="34">
+        <v>6.3607310000000004</v>
+      </c>
+      <c r="G25" s="34">
+        <v>1.6257862999999999</v>
+      </c>
+      <c r="H25" s="34">
+        <v>3.9124029999999999</v>
+      </c>
+      <c r="I25" s="36">
+        <v>9.1382250000000004E-5</v>
+      </c>
+      <c r="J25" s="36">
+        <v>1.6479029999999999E-2</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="N25" s="34"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="34">
+        <v>219.09562</v>
+      </c>
+      <c r="F26" s="34">
+        <v>5.2390509999999999</v>
+      </c>
+      <c r="G26" s="34">
+        <v>1.244907</v>
+      </c>
+      <c r="H26" s="34">
+        <v>4.2083880000000002</v>
+      </c>
+      <c r="I26" s="36">
+        <v>2.5719919999999999E-5</v>
+      </c>
+      <c r="J26" s="36">
+        <v>6.291268E-3</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="N26" s="34"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="34">
+        <v>203.15591000000001</v>
+      </c>
+      <c r="F27" s="34">
+        <v>10.394028</v>
+      </c>
+      <c r="G27" s="34">
+        <v>2.5697268000000002</v>
+      </c>
+      <c r="H27" s="34">
+        <v>4.0447990000000003</v>
+      </c>
+      <c r="I27" s="36">
+        <v>5.2368050000000001E-5</v>
+      </c>
+      <c r="J27" s="36">
+        <v>1.101531E-2</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="N27" s="34"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="34">
+        <v>942.28189999999995</v>
+      </c>
+      <c r="F28" s="34">
+        <v>8.4905229999999996</v>
+      </c>
+      <c r="G28" s="34">
+        <v>1.5144553999999999</v>
+      </c>
+      <c r="H28" s="34">
+        <v>5.6063210000000003</v>
+      </c>
+      <c r="I28" s="36">
+        <v>2.0667249999999999E-8</v>
+      </c>
+      <c r="J28" s="36">
+        <v>1.635124E-5</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="N28" s="34"/>
+    </row>
+    <row r="36" spans="10:14">
+      <c r="J36" s="38"/>
+      <c r="N36" s="38"/>
+    </row>
+    <row r="37" spans="10:14">
+      <c r="J37" s="38"/>
+      <c r="N37" s="38"/>
+    </row>
+    <row r="38" spans="10:14">
+      <c r="J38" s="38"/>
+      <c r="N38" s="38"/>
+    </row>
+    <row r="39" spans="10:14">
+      <c r="J39" s="38"/>
+      <c r="N39" s="38"/>
+    </row>
+    <row r="40" spans="10:14">
+      <c r="J40" s="38"/>
+      <c r="N40" s="38"/>
+    </row>
+    <row r="41" spans="10:14">
+      <c r="J41" s="38"/>
+      <c r="N41" s="38"/>
+    </row>
+    <row r="42" spans="10:14">
+      <c r="J42" s="38"/>
+      <c r="N42" s="38"/>
+    </row>
+    <row r="43" spans="10:14">
+      <c r="J43" s="38"/>
+      <c r="N43" s="38"/>
+    </row>
+    <row r="44" spans="10:14">
+      <c r="J44" s="38"/>
+      <c r="N44" s="38"/>
+    </row>
+    <row r="45" spans="10:14">
+      <c r="J45" s="39"/>
+    </row>
+    <row r="46" spans="10:14">
+      <c r="J46" s="39"/>
+    </row>
+    <row r="47" spans="10:14">
+      <c r="J47" s="39"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
+    <sortCondition ref="K2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5996A76-09F5-2B4D-8E3F-49FD02170E23}">
+  <dimension ref="A1:T79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="47">
+        <v>2368.00886568543</v>
+      </c>
+      <c r="E2" s="47">
+        <v>5.1332736848635001</v>
+      </c>
+      <c r="F2" s="47">
+        <v>0.26901088382749799</v>
+      </c>
+      <c r="G2" s="47">
+        <v>19.082029737336502</v>
+      </c>
+      <c r="H2" s="48">
+        <v>3.5615540399431399E-81</v>
+      </c>
+      <c r="I2" s="48">
+        <v>3.62316892483416E-77</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A3" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="47">
+        <v>9835.7908508130004</v>
+      </c>
+      <c r="E3" s="47">
+        <v>4.4619818333276502</v>
+      </c>
+      <c r="F3" s="47">
+        <v>0.24844283482653501</v>
+      </c>
+      <c r="G3" s="47">
+        <v>17.9597927887236</v>
+      </c>
+      <c r="H3" s="48">
+        <v>4.0230677172011798E-72</v>
+      </c>
+      <c r="I3" s="48">
+        <v>2.0463333943543799E-68</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="47">
+        <v>3412.6496396832299</v>
+      </c>
+      <c r="E4" s="47">
+        <v>5.6834692292715001</v>
+      </c>
+      <c r="F4" s="47">
+        <v>0.39016616955567301</v>
+      </c>
+      <c r="G4" s="47">
+        <v>14.566791466681799</v>
+      </c>
+      <c r="H4" s="48">
+        <v>4.5684933256888497E-48</v>
+      </c>
+      <c r="I4" s="48">
+        <v>1.5491760867410901E-44</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="47">
+        <v>1071.4380348398699</v>
+      </c>
+      <c r="E5" s="47">
+        <v>2.9264249086262</v>
+      </c>
+      <c r="F5" s="47">
+        <v>0.33306340641618198</v>
+      </c>
+      <c r="G5" s="47">
+        <v>8.7863897751933404</v>
+      </c>
+      <c r="H5" s="48">
+        <v>1.5444307553026E-18</v>
+      </c>
+      <c r="I5" s="48">
+        <v>3.9278735184233398E-15</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="47">
+        <v>4912.5661809048497</v>
+      </c>
+      <c r="E6" s="47">
+        <v>3.75881853549209</v>
+      </c>
+      <c r="F6" s="47">
+        <v>0.433805332349393</v>
+      </c>
+      <c r="G6" s="47">
+        <v>8.6647587182369605</v>
+      </c>
+      <c r="H6" s="48">
+        <v>4.5247023894103399E-18</v>
+      </c>
+      <c r="I6" s="48">
+        <v>9.2059594814942693E-15</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="47">
+        <v>182.32916366416799</v>
+      </c>
+      <c r="E7" s="47">
+        <v>4.4664709736823101</v>
+      </c>
+      <c r="F7" s="47">
+        <v>0.56684203333346395</v>
+      </c>
+      <c r="G7" s="47">
+        <v>7.8795691057278496</v>
+      </c>
+      <c r="H7" s="48">
+        <v>3.2851196984951201E-15</v>
+      </c>
+      <c r="I7" s="48">
+        <v>4.7742175275415496E-12</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="K7" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="47">
+        <v>115.450077750011</v>
+      </c>
+      <c r="E8" s="47">
+        <v>6.6345475704571601</v>
+      </c>
+      <c r="F8" s="47">
+        <v>0.95691044268736702</v>
+      </c>
+      <c r="G8" s="47">
+        <v>6.9333004161025098</v>
+      </c>
+      <c r="H8" s="48">
+        <v>4.1113381453198003E-12</v>
+      </c>
+      <c r="I8" s="48">
+        <v>3.8022402683943904E-9</v>
+      </c>
+      <c r="J8" s="48"/>
+      <c r="K8" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="47">
+        <v>245.64607813967601</v>
+      </c>
+      <c r="E9" s="47">
+        <v>7.6889432606900501</v>
+      </c>
+      <c r="F9" s="47">
+        <v>1.11306383917143</v>
+      </c>
+      <c r="G9" s="47">
+        <v>6.9079085943657299</v>
+      </c>
+      <c r="H9" s="48">
+        <v>4.9185070833924696E-12</v>
+      </c>
+      <c r="I9" s="48">
+        <v>4.1696643799459697E-9</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="47">
+        <v>862.595032141052</v>
+      </c>
+      <c r="E10" s="47">
+        <v>2.3701048942476901</v>
+      </c>
+      <c r="F10" s="47">
+        <v>0.389113927811502</v>
+      </c>
+      <c r="G10" s="47">
+        <v>6.09103073636531</v>
+      </c>
+      <c r="H10" s="48">
+        <v>1.1218600711800999E-9</v>
+      </c>
+      <c r="I10" s="48">
+        <v>5.4346107162452903E-7</v>
+      </c>
+      <c r="J10" s="48"/>
+      <c r="K10" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A11" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="47">
+        <v>110.317160665004</v>
+      </c>
+      <c r="E11" s="47">
+        <v>4.9401834010722903</v>
+      </c>
+      <c r="F11" s="47">
+        <v>0.80973637175136703</v>
+      </c>
+      <c r="G11" s="47">
+        <v>6.1009775198651797</v>
+      </c>
+      <c r="H11" s="48">
+        <v>1.0542173590858799E-9</v>
+      </c>
+      <c r="I11" s="48">
+        <v>5.4346107162452903E-7</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A12" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="47">
+        <v>403.67240280727202</v>
+      </c>
+      <c r="E12" s="47">
+        <v>3.04034063052835</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0.51680479248273503</v>
+      </c>
+      <c r="G12" s="47">
+        <v>5.8829575010760404</v>
+      </c>
+      <c r="H12" s="48">
+        <v>4.0299943407317202E-9</v>
+      </c>
+      <c r="I12" s="48">
+        <v>1.6398852971305499E-6</v>
+      </c>
+      <c r="J12" s="48"/>
+      <c r="K12" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A13" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="47">
+        <v>1816.2084046181801</v>
+      </c>
+      <c r="E13" s="47">
+        <v>5.5455278354594002</v>
+      </c>
+      <c r="F13" s="47">
+        <v>0.97989390184545799</v>
+      </c>
+      <c r="G13" s="47">
+        <v>5.6593145696849101</v>
+      </c>
+      <c r="H13" s="48">
+        <v>1.5197875963469701E-8</v>
+      </c>
+      <c r="I13" s="48">
+        <v>5.52171400629919E-6</v>
+      </c>
+      <c r="J13" s="48"/>
+      <c r="K13" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A14" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="47">
+        <v>258.35773628726201</v>
+      </c>
+      <c r="E14" s="47">
+        <v>3.0762363677012199</v>
+      </c>
+      <c r="F14" s="47">
+        <v>0.56515047750278702</v>
+      </c>
+      <c r="G14" s="47">
+        <v>5.4432164355484298</v>
+      </c>
+      <c r="H14" s="48">
+        <v>5.23270033585024E-8</v>
+      </c>
+      <c r="I14" s="48">
+        <v>1.7171696940840199E-5</v>
+      </c>
+      <c r="J14" s="48"/>
+      <c r="K14" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A15" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="47">
+        <v>379.26967226731301</v>
+      </c>
+      <c r="E15" s="47">
+        <v>2.1607012356039599</v>
+      </c>
+      <c r="F15" s="47">
+        <v>0.397393119179205</v>
+      </c>
+      <c r="G15" s="47">
+        <v>5.4371883440427302</v>
+      </c>
+      <c r="H15" s="48">
+        <v>5.4127913085195899E-8</v>
+      </c>
+      <c r="I15" s="48">
+        <v>1.72076018692406E-5</v>
+      </c>
+      <c r="J15" s="48"/>
+      <c r="K15" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A16" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="47">
+        <v>330.32616483679402</v>
+      </c>
+      <c r="E16" s="47">
+        <v>2.2079868584490101</v>
+      </c>
+      <c r="F16" s="47">
+        <v>0.41480595814517002</v>
+      </c>
+      <c r="G16" s="47">
+        <v>5.3229391118733203</v>
+      </c>
+      <c r="H16" s="48">
+        <v>1.0210392909719E-7</v>
+      </c>
+      <c r="I16" s="48">
+        <v>2.80730613704247E-5</v>
+      </c>
+      <c r="J16" s="48"/>
+      <c r="K16" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A17" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="47">
+        <v>147.85992796636799</v>
+      </c>
+      <c r="E17" s="47">
+        <v>2.71566202954667</v>
+      </c>
+      <c r="F17" s="47">
+        <v>0.56647016577369302</v>
+      </c>
+      <c r="G17" s="47">
+        <v>4.7940071580602703</v>
+      </c>
+      <c r="H17" s="48">
+        <v>1.63482436759946E-6</v>
+      </c>
+      <c r="I17" s="48">
+        <v>3.39409556971211E-4</v>
+      </c>
+      <c r="J17" s="48"/>
+      <c r="K17" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A18" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="47">
+        <v>143.02149262110899</v>
+      </c>
+      <c r="E18" s="47">
+        <v>2.9666249775967901</v>
+      </c>
+      <c r="F18" s="47">
+        <v>0.63769087393667701</v>
+      </c>
+      <c r="G18" s="47">
+        <v>4.6521364799888696</v>
+      </c>
+      <c r="H18" s="48">
+        <v>3.28513526451245E-6</v>
+      </c>
+      <c r="I18" s="48">
+        <v>6.4268617395932899E-4</v>
+      </c>
+      <c r="J18" s="48"/>
+      <c r="K18" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A19" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="47">
+        <v>437.62046091620601</v>
+      </c>
+      <c r="E19" s="47">
+        <v>2.5974523235436102</v>
+      </c>
+      <c r="F19" s="47">
+        <v>0.56082352325470697</v>
+      </c>
+      <c r="G19" s="47">
+        <v>4.63149674690791</v>
+      </c>
+      <c r="H19" s="48">
+        <v>3.6303170322194101E-6</v>
+      </c>
+      <c r="I19" s="48">
+        <v>6.8391139201422397E-4</v>
+      </c>
+      <c r="J19" s="48"/>
+      <c r="K19" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A20" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="47">
+        <v>225.770013177116</v>
+      </c>
+      <c r="E20" s="47">
+        <v>2.37633655840034</v>
+      </c>
+      <c r="F20" s="47">
+        <v>0.51528517215855396</v>
+      </c>
+      <c r="G20" s="47">
+        <v>4.6116921013771002</v>
+      </c>
+      <c r="H20" s="48">
+        <v>3.9940430629290197E-6</v>
+      </c>
+      <c r="I20" s="48">
+        <v>7.1283158033643703E-4</v>
+      </c>
+      <c r="J20" s="48"/>
+      <c r="K20" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="33" customFormat="1" ht="20" customHeight="1">
+      <c r="A21" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="55">
+        <v>85.656378580674598</v>
+      </c>
+      <c r="E21" s="55">
+        <v>7.3314522387300798</v>
+      </c>
+      <c r="F21" s="55">
+        <v>1.5915805078357701</v>
+      </c>
+      <c r="G21" s="55">
+        <v>4.6063973532192604</v>
+      </c>
+      <c r="H21" s="56">
+        <v>4.0970515741341497E-6</v>
+      </c>
+      <c r="I21" s="56">
+        <v>7.1860871833907998E-4</v>
+      </c>
+      <c r="J21" s="56"/>
+      <c r="K21" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="34">
+        <v>2733.7078200000001</v>
+      </c>
+      <c r="E22" s="34">
+        <v>5.2893540000000003</v>
+      </c>
+      <c r="F22" s="34">
+        <v>1.3621341</v>
+      </c>
+      <c r="G22" s="34">
+        <v>3.8831380000000002</v>
+      </c>
+      <c r="H22" s="36">
+        <v>1.031171E-4</v>
+      </c>
+      <c r="I22" s="37">
+        <v>1.7482029999999999E-2</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="T22" s="38"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="34">
+        <v>122.69502</v>
+      </c>
+      <c r="E23" s="34">
+        <v>7.3477839999999999</v>
+      </c>
+      <c r="F23" s="34">
+        <v>1.9940009999999999</v>
+      </c>
+      <c r="G23" s="34">
+        <v>3.6849449999999999</v>
+      </c>
+      <c r="H23" s="36">
+        <v>2.2875200000000001E-4</v>
+      </c>
+      <c r="I23" s="37">
+        <v>3.333941E-2</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="T23" s="38"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="34">
+        <v>101.73727</v>
+      </c>
+      <c r="E24" s="34">
+        <v>8.8580330000000007</v>
+      </c>
+      <c r="F24" s="34">
+        <v>2.3201553000000001</v>
+      </c>
+      <c r="G24" s="34">
+        <v>3.8178619999999999</v>
+      </c>
+      <c r="H24" s="36">
+        <v>1.3461300000000001E-4</v>
+      </c>
+      <c r="I24" s="37">
+        <v>2.126542E-2</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="T24" s="38"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="34">
+        <v>148.57711</v>
+      </c>
+      <c r="E25" s="34">
+        <v>21.222121000000001</v>
+      </c>
+      <c r="F25" s="34">
+        <v>4.5744407999999996</v>
+      </c>
+      <c r="G25" s="34">
+        <v>4.6392819999999997</v>
+      </c>
+      <c r="H25" s="36">
+        <v>3.4962169999999999E-6</v>
+      </c>
+      <c r="I25" s="37">
+        <v>1.2293740000000001E-3</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="T25" s="38"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="34">
+        <v>73.849140000000006</v>
+      </c>
+      <c r="E26" s="34">
+        <v>5.7686999999999999</v>
+      </c>
+      <c r="F26" s="34">
+        <v>1.4350590000000001</v>
+      </c>
+      <c r="G26" s="34">
+        <v>4.0198340000000004</v>
+      </c>
+      <c r="H26" s="36">
+        <v>5.8239049999999999E-5</v>
+      </c>
+      <c r="I26" s="37">
+        <v>1.173445E-2</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="T26" s="38"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="34">
+        <v>78.508809999999997</v>
+      </c>
+      <c r="E27" s="34">
+        <v>7.1762300000000003</v>
+      </c>
+      <c r="F27" s="34">
+        <v>1.4000283</v>
+      </c>
+      <c r="G27" s="34">
+        <v>5.125775</v>
+      </c>
+      <c r="H27" s="36">
+        <v>2.9631679999999998E-7</v>
+      </c>
+      <c r="I27" s="37">
+        <v>1.562907E-4</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="T27" s="38"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="34">
+        <v>247.90329</v>
+      </c>
+      <c r="E28" s="34">
+        <v>5.2227030000000001</v>
+      </c>
+      <c r="F28" s="34">
+        <v>0.91263139999999998</v>
+      </c>
+      <c r="G28" s="34">
+        <v>5.7226860000000004</v>
+      </c>
+      <c r="H28" s="36">
+        <v>1.0485290000000001E-8</v>
+      </c>
+      <c r="I28" s="37">
+        <v>9.9547350000000005E-6</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="T28" s="38"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="34">
+        <v>1119.8621499999999</v>
+      </c>
+      <c r="E29" s="34">
+        <v>5.1668459999999996</v>
+      </c>
+      <c r="F29" s="34">
+        <v>0.92655399999999999</v>
+      </c>
+      <c r="G29" s="34">
+        <v>5.5764110000000002</v>
+      </c>
+      <c r="H29" s="36">
+        <v>2.455314E-8</v>
+      </c>
+      <c r="I29" s="37">
+        <v>1.7931349999999999E-5</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="T29" s="38"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="34">
+        <v>1600.6429499999999</v>
+      </c>
+      <c r="E30" s="34">
+        <v>15.010524</v>
+      </c>
+      <c r="F30" s="34">
+        <v>2.4314293</v>
+      </c>
+      <c r="G30" s="34">
+        <v>6.1735389999999999</v>
+      </c>
+      <c r="H30" s="36">
+        <v>6.6778069999999996E-10</v>
+      </c>
+      <c r="I30" s="37">
+        <v>1.2679819999999999E-6</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" s="38"/>
+      <c r="P30" s="39"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="34">
+        <v>1563.1700900000001</v>
+      </c>
+      <c r="E31" s="34">
+        <v>5.4169140000000002</v>
+      </c>
+      <c r="F31" s="34">
+        <v>0.89861760000000002</v>
+      </c>
+      <c r="G31" s="34">
+        <v>6.0280519999999997</v>
+      </c>
+      <c r="H31" s="36">
+        <v>1.6594740000000001E-9</v>
+      </c>
+      <c r="I31" s="37">
+        <v>2.2507209999999998E-6</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" s="38"/>
+      <c r="P31" s="39"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="34">
+        <v>242.96446</v>
+      </c>
+      <c r="E32" s="34">
+        <v>6.0010490000000001</v>
+      </c>
+      <c r="F32" s="34">
+        <v>0.82557720000000001</v>
+      </c>
+      <c r="G32" s="34">
+        <v>7.2689130000000004</v>
+      </c>
+      <c r="H32" s="36">
+        <v>3.6239120000000002E-13</v>
+      </c>
+      <c r="I32" s="37">
+        <v>1.720271E-9</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" s="38"/>
+      <c r="P32" s="42"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="34">
+        <v>318.86131</v>
+      </c>
+      <c r="E33" s="34">
+        <v>5.0544289999999998</v>
+      </c>
+      <c r="F33" s="34">
+        <v>1.2587387999999999</v>
+      </c>
+      <c r="G33" s="34">
+        <v>4.0154699999999997</v>
+      </c>
+      <c r="H33" s="36">
+        <v>5.9327329999999999E-5</v>
+      </c>
+      <c r="I33" s="37">
+        <v>1.173445E-2</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L33" s="38"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="34">
+        <v>886.37937999999997</v>
+      </c>
+      <c r="E34" s="34">
+        <v>14.269050999999999</v>
+      </c>
+      <c r="F34" s="34">
+        <v>3.2682677999999998</v>
+      </c>
+      <c r="G34" s="34">
+        <v>4.3659369999999997</v>
+      </c>
+      <c r="H34" s="36">
+        <v>1.265791E-5</v>
+      </c>
+      <c r="I34" s="37">
+        <v>3.6416420000000001E-3</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L34" s="38"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="34">
+        <v>160.52493000000001</v>
+      </c>
+      <c r="E35" s="34">
+        <v>8.0656569999999999</v>
+      </c>
+      <c r="F35" s="34">
+        <v>1.5808173000000001</v>
+      </c>
+      <c r="G35" s="34">
+        <v>5.1022069999999999</v>
+      </c>
+      <c r="H35" s="36">
+        <v>3.3571599999999999E-7</v>
+      </c>
+      <c r="I35" s="37">
+        <v>1.6775199999999999E-4</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L35" s="38"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="34">
+        <v>7977.0032300000003</v>
+      </c>
+      <c r="E36" s="34">
+        <v>11.031262999999999</v>
+      </c>
+      <c r="F36" s="34">
+        <v>2.8232580999999999</v>
+      </c>
+      <c r="G36" s="34">
+        <v>3.9072809999999998</v>
+      </c>
+      <c r="H36" s="36">
+        <v>9.3340539999999995E-5</v>
+      </c>
+      <c r="I36" s="37">
+        <v>1.6479029999999999E-2</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L36" s="38"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="34">
+        <v>996.32524000000001</v>
+      </c>
+      <c r="E37" s="34">
+        <v>5.7149749999999999</v>
+      </c>
+      <c r="F37" s="34">
+        <v>1.3832761</v>
+      </c>
+      <c r="G37" s="34">
+        <v>4.1314780000000004</v>
+      </c>
+      <c r="H37" s="36">
+        <v>3.6043839999999998E-5</v>
+      </c>
+      <c r="I37" s="36">
+        <v>8.1476229999999997E-3</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L37" s="34"/>
+      <c r="N37" s="34"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="34">
+        <v>25682.549319999998</v>
+      </c>
+      <c r="E38" s="34">
+        <v>6.4405279999999996</v>
+      </c>
+      <c r="F38" s="34">
+        <v>1.1393933000000001</v>
+      </c>
+      <c r="G38" s="34">
+        <v>5.6525939999999997</v>
+      </c>
+      <c r="H38" s="36">
+        <v>1.5804419999999999E-8</v>
+      </c>
+      <c r="I38" s="36">
+        <v>1.364065E-5</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L38" s="34"/>
+      <c r="N38" s="34"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="34">
+        <v>184.17633000000001</v>
+      </c>
+      <c r="E39" s="34">
+        <v>6.3607310000000004</v>
+      </c>
+      <c r="F39" s="34">
+        <v>1.6257862999999999</v>
+      </c>
+      <c r="G39" s="34">
+        <v>3.9124029999999999</v>
+      </c>
+      <c r="H39" s="36">
+        <v>9.1382250000000004E-5</v>
+      </c>
+      <c r="I39" s="36">
+        <v>1.6479029999999999E-2</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L39" s="34"/>
+      <c r="N39" s="34"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="34">
+        <v>219.09562</v>
+      </c>
+      <c r="E40" s="34">
+        <v>5.2390509999999999</v>
+      </c>
+      <c r="F40" s="34">
+        <v>1.244907</v>
+      </c>
+      <c r="G40" s="34">
+        <v>4.2083880000000002</v>
+      </c>
+      <c r="H40" s="36">
+        <v>2.5719919999999999E-5</v>
+      </c>
+      <c r="I40" s="36">
+        <v>6.291268E-3</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L40" s="34"/>
+      <c r="N40" s="34"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="34">
+        <v>203.15591000000001</v>
+      </c>
+      <c r="E41" s="34">
+        <v>10.394028</v>
+      </c>
+      <c r="F41" s="34">
+        <v>2.5697268000000002</v>
+      </c>
+      <c r="G41" s="34">
+        <v>4.0447990000000003</v>
+      </c>
+      <c r="H41" s="36">
+        <v>5.2368050000000001E-5</v>
+      </c>
+      <c r="I41" s="36">
+        <v>1.101531E-2</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L41" s="34"/>
+      <c r="N41" s="34"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="34">
+        <v>942.28189999999995</v>
+      </c>
+      <c r="E42" s="34">
+        <v>8.4905229999999996</v>
+      </c>
+      <c r="F42" s="34">
+        <v>1.5144553999999999</v>
+      </c>
+      <c r="G42" s="34">
+        <v>5.6063210000000003</v>
+      </c>
+      <c r="H42" s="36">
+        <v>2.0667249999999999E-8</v>
+      </c>
+      <c r="I42" s="36">
+        <v>1.635124E-5</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L42" s="34"/>
+      <c r="N42" s="34"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="15">
+        <v>261.66836175716099</v>
+      </c>
+      <c r="E44" s="15">
+        <v>-6.2511723104845203</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0.75920578137853201</v>
+      </c>
+      <c r="G44" s="15">
+        <v>-8.2338312797538595</v>
+      </c>
+      <c r="H44" s="16">
+        <v>1.8131901678007601E-16</v>
+      </c>
+      <c r="I44" s="16">
+        <v>3.0742639295061801E-13</v>
+      </c>
+      <c r="J44" s="16"/>
+      <c r="K44" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="28">
+      <c r="A45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2716.3798874865502</v>
+      </c>
+      <c r="E45" s="4">
+        <v>-2.03214501234861</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.26367940166523901</v>
+      </c>
+      <c r="G45" s="4">
+        <v>-7.7068781236411299</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1.2893282312587401E-14</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1.6395420120743899E-11</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="17">
+        <v>911.28537156227003</v>
+      </c>
+      <c r="E46" s="17">
+        <v>-3.3077677894185999</v>
+      </c>
+      <c r="F46" s="17">
+        <v>0.45193194070618398</v>
+      </c>
+      <c r="G46" s="17">
+        <v>-7.3191724051411899</v>
+      </c>
+      <c r="H46" s="18">
+        <v>2.4950487890006499E-13</v>
+      </c>
+      <c r="I46" s="18">
+        <v>2.8202368145004097E-10</v>
+      </c>
+      <c r="J46" s="18"/>
+      <c r="K46" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="17">
+        <v>772.05109409978502</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-2.1385240435877799</v>
+      </c>
+      <c r="F47" s="17">
+        <v>0.31705108126821402</v>
+      </c>
+      <c r="G47" s="17">
+        <v>-6.74504573532323</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1.5297882887301799E-11</v>
+      </c>
+      <c r="I47" s="18">
+        <v>1.19711817394247E-8</v>
+      </c>
+      <c r="J47" s="18"/>
+      <c r="K47" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="17">
+        <v>491.43953187039801</v>
+      </c>
+      <c r="E48" s="17">
+        <v>-2.58832870243149</v>
+      </c>
+      <c r="F48" s="17">
+        <v>0.38803366619621299</v>
+      </c>
+      <c r="G48" s="17">
+        <v>-6.6703714855573404</v>
+      </c>
+      <c r="H48" s="18">
+        <v>2.5515672589456299E-11</v>
+      </c>
+      <c r="I48" s="18">
+        <v>1.85407812323242E-8</v>
+      </c>
+      <c r="J48" s="18"/>
+      <c r="K48" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="17">
+        <v>1380.58344961835</v>
+      </c>
+      <c r="E49" s="17">
+        <v>-2.4202225754582201</v>
+      </c>
+      <c r="F49" s="17">
+        <v>0.36339869776467798</v>
+      </c>
+      <c r="G49" s="17">
+        <v>-6.65996491001588</v>
+      </c>
+      <c r="H49" s="18">
+        <v>2.73892969958696E-11</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1.85754212225988E-8</v>
+      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="17">
+        <v>284.95896573144199</v>
+      </c>
+      <c r="E50" s="17">
+        <v>-3.0000242995936501</v>
+      </c>
+      <c r="F50" s="17">
+        <v>0.47753370164473402</v>
+      </c>
+      <c r="G50" s="17">
+        <v>-6.2823299994552997</v>
+      </c>
+      <c r="H50" s="18">
+        <v>3.33535910044047E-10</v>
+      </c>
+      <c r="I50" s="18">
+        <v>1.9959181252224E-7</v>
+      </c>
+      <c r="J50" s="18"/>
+      <c r="K50" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="17">
+        <v>155.78146724578801</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-4.8813446283359099</v>
+      </c>
+      <c r="F51" s="17">
+        <v>0.80080260898850397</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-6.0955653410040096</v>
+      </c>
+      <c r="H51" s="18">
+        <v>1.09051356411186E-9</v>
+      </c>
+      <c r="I51" s="18">
+        <v>5.4346107162452903E-7</v>
+      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="17">
+        <v>893.54785489699202</v>
+      </c>
+      <c r="E52" s="17">
+        <v>-2.5912346947126799</v>
+      </c>
+      <c r="F52" s="17">
+        <v>0.43168391842405801</v>
+      </c>
+      <c r="G52" s="17">
+        <v>-6.0026203991394</v>
+      </c>
+      <c r="H52" s="18">
+        <v>1.9415818629646499E-9</v>
+      </c>
+      <c r="I52" s="18">
+        <v>8.9780510417906096E-7</v>
+      </c>
+      <c r="J52" s="18"/>
+      <c r="K52" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="17">
+        <v>420.204347743764</v>
+      </c>
+      <c r="E53" s="17">
+        <v>-2.3743876008160001</v>
+      </c>
+      <c r="F53" s="17">
+        <v>0.40037089756120797</v>
+      </c>
+      <c r="G53" s="17">
+        <v>-5.9304700098812901</v>
+      </c>
+      <c r="H53" s="18">
+        <v>3.0206875407034001E-9</v>
+      </c>
+      <c r="I53" s="18">
+        <v>1.28039393131565E-6</v>
+      </c>
+      <c r="J53" s="18"/>
+      <c r="K53" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="17">
+        <v>179.99408896566001</v>
+      </c>
+      <c r="E54" s="17">
+        <v>-3.3995923329612898</v>
+      </c>
+      <c r="F54" s="17">
+        <v>0.5879012088344</v>
+      </c>
+      <c r="G54" s="17">
+        <v>-5.7825911596635002</v>
+      </c>
+      <c r="H54" s="18">
+        <v>7.3558684229058902E-9</v>
+      </c>
+      <c r="I54" s="18">
+        <v>2.8781249794700602E-6</v>
+      </c>
+      <c r="J54" s="18"/>
+      <c r="K54" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="17">
+        <v>62.638934452312</v>
+      </c>
+      <c r="E55" s="17">
+        <v>-4.4564916700698998</v>
+      </c>
+      <c r="F55" s="17">
+        <v>0.79441526357875003</v>
+      </c>
+      <c r="G55" s="17">
+        <v>-5.6097759879309397</v>
+      </c>
+      <c r="H55" s="18">
+        <v>2.0258867750988801E-8</v>
+      </c>
+      <c r="I55" s="18">
+        <v>7.1066710907175403E-6</v>
+      </c>
+      <c r="J55" s="18"/>
+      <c r="K55" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="17">
+        <v>56.683739758549599</v>
+      </c>
+      <c r="E56" s="17">
+        <v>-4.6674616862185596</v>
+      </c>
+      <c r="F56" s="17">
+        <v>0.83965418056176699</v>
+      </c>
+      <c r="G56" s="17">
+        <v>-5.5587905047954598</v>
+      </c>
+      <c r="H56" s="18">
+        <v>2.71650518184833E-8</v>
+      </c>
+      <c r="I56" s="18">
+        <v>9.2116690716476799E-6</v>
+      </c>
+      <c r="J56" s="18"/>
+      <c r="K56" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="17">
+        <v>79.258424756644203</v>
+      </c>
+      <c r="E57" s="17">
+        <v>-4.0669173580038098</v>
+      </c>
+      <c r="F57" s="17">
+        <v>0.75533999597635104</v>
+      </c>
+      <c r="G57" s="17">
+        <v>-5.3842208537453704</v>
+      </c>
+      <c r="H57" s="18">
+        <v>7.2759123200461497E-8</v>
+      </c>
+      <c r="I57" s="18">
+        <v>2.1769957656420399E-5</v>
+      </c>
+      <c r="J57" s="18"/>
+      <c r="K57" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="17">
+        <v>256.86447558416597</v>
+      </c>
+      <c r="E58" s="17">
+        <v>-3.3223843028243101</v>
+      </c>
+      <c r="F58" s="17">
+        <v>0.61864892358028301</v>
+      </c>
+      <c r="G58" s="17">
+        <v>-5.3703872684313501</v>
+      </c>
+      <c r="H58" s="18">
+        <v>7.8567735251165304E-8</v>
+      </c>
+      <c r="I58" s="18">
+        <v>2.2836273448860099E-5</v>
+      </c>
+      <c r="J58" s="18"/>
+      <c r="K58" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="17">
+        <v>1093.7839886249999</v>
+      </c>
+      <c r="E59" s="17">
+        <v>-2.2426531463608299</v>
+      </c>
+      <c r="F59" s="17">
+        <v>0.41939278744099201</v>
+      </c>
+      <c r="G59" s="17">
+        <v>-5.3473812939054701</v>
+      </c>
+      <c r="H59" s="18">
+        <v>8.9235898931339202E-8</v>
+      </c>
+      <c r="I59" s="18">
+        <v>2.5216577773014301E-5</v>
+      </c>
+      <c r="J59" s="18"/>
+      <c r="K59" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="29">
+      <c r="A60" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="17">
+        <v>81.471582528583596</v>
+      </c>
+      <c r="E60" s="17">
+        <v>-3.6236245338744699</v>
+      </c>
+      <c r="F60" s="17">
+        <v>0.70245868385085297</v>
+      </c>
+      <c r="G60" s="17">
+        <v>-5.15848777612071</v>
+      </c>
+      <c r="H60" s="18">
+        <v>2.4895235815906802E-7</v>
+      </c>
+      <c r="I60" s="18">
+        <v>6.1770544867126705E-5</v>
+      </c>
+      <c r="J60" s="18"/>
+      <c r="K60" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="17">
+        <v>164.29569638399499</v>
+      </c>
+      <c r="E61" s="17">
+        <v>-3.1881841902658001</v>
+      </c>
+      <c r="F61" s="17">
+        <v>0.64735715504291202</v>
+      </c>
+      <c r="G61" s="17">
+        <v>-4.9249230744263004</v>
+      </c>
+      <c r="H61" s="18">
+        <v>8.43935475845762E-7</v>
+      </c>
+      <c r="I61" s="18">
+        <v>1.95121718085885E-4</v>
+      </c>
+      <c r="J61" s="18"/>
+      <c r="K61" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="17">
+        <v>1622.99609451174</v>
+      </c>
+      <c r="E62" s="17">
+        <v>-2.3078133967689198</v>
+      </c>
+      <c r="F62" s="17">
+        <v>0.471005382750386</v>
+      </c>
+      <c r="G62" s="17">
+        <v>-4.8997601328729896</v>
+      </c>
+      <c r="H62" s="18">
+        <v>9.5953729406319592E-7</v>
+      </c>
+      <c r="I62" s="18">
+        <v>2.1220375853271499E-4</v>
+      </c>
+      <c r="J62" s="18"/>
+      <c r="K62" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="17">
+      <c r="A63" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="17">
+        <v>247.45824345490701</v>
+      </c>
+      <c r="E63" s="17">
+        <v>-2.5816183311890502</v>
+      </c>
+      <c r="F63" s="17">
+        <v>0.56699079369869598</v>
+      </c>
+      <c r="G63" s="17">
+        <v>-4.5531926794581103</v>
+      </c>
+      <c r="H63" s="18">
+        <v>5.2837837605893898E-6</v>
+      </c>
+      <c r="I63" s="18">
+        <v>8.9586553660793097E-4</v>
+      </c>
+      <c r="J63" s="18"/>
+      <c r="K63" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="34">
+        <v>110.55362</v>
+      </c>
+      <c r="E64" s="34">
+        <v>-6.3992550000000001</v>
+      </c>
+      <c r="F64" s="34">
+        <v>0.83139600000000002</v>
+      </c>
+      <c r="G64" s="34">
+        <v>-7.6970010000000002</v>
+      </c>
+      <c r="H64" s="36">
+        <v>1.392973E-14</v>
+      </c>
+      <c r="I64" s="37">
+        <v>1.3224889999999999E-10</v>
+      </c>
+      <c r="K64" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L64" s="38"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="34">
+        <v>25.560590000000001</v>
+      </c>
+      <c r="E65" s="34">
+        <v>-8.3112619999999993</v>
+      </c>
+      <c r="F65" s="34">
+        <v>2.1304124999999998</v>
+      </c>
+      <c r="G65" s="34">
+        <v>-3.9012449999999999</v>
+      </c>
+      <c r="H65" s="36">
+        <v>9.5699079999999999E-5</v>
+      </c>
+      <c r="I65" s="37">
+        <v>1.65194E-2</v>
+      </c>
+      <c r="K65" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L65" s="38"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="34">
+        <v>1150.4045000000001</v>
+      </c>
+      <c r="E66" s="34">
+        <v>-7.5667350000000004</v>
+      </c>
+      <c r="F66" s="34">
+        <v>1.2172247</v>
+      </c>
+      <c r="G66" s="34">
+        <v>-6.2163830000000004</v>
+      </c>
+      <c r="H66" s="36">
+        <v>5.0874469999999999E-10</v>
+      </c>
+      <c r="I66" s="37">
+        <v>1.207505E-6</v>
+      </c>
+      <c r="K66" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L66" s="38"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="34">
+        <v>117.05943000000001</v>
+      </c>
+      <c r="E67" s="34">
+        <v>-7.671837</v>
+      </c>
+      <c r="F67" s="34">
+        <v>1.5133118999999999</v>
+      </c>
+      <c r="G67" s="34">
+        <v>-5.0695680000000003</v>
+      </c>
+      <c r="H67" s="36">
+        <v>3.9871969999999998E-7</v>
+      </c>
+      <c r="I67" s="37">
+        <v>1.8633500000000001E-4</v>
+      </c>
+      <c r="K67" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L67" s="38"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="34">
+        <v>25.15024</v>
+      </c>
+      <c r="E68" s="34">
+        <v>-6.0466249999999997</v>
+      </c>
+      <c r="F68" s="34">
+        <v>1.3719564</v>
+      </c>
+      <c r="G68" s="34">
+        <v>-4.4073010000000004</v>
+      </c>
+      <c r="H68" s="36">
+        <v>1.046666E-5</v>
+      </c>
+      <c r="I68" s="37">
+        <v>3.105329E-3</v>
+      </c>
+      <c r="K68" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L68" s="38"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" s="34">
+        <v>106.4192</v>
+      </c>
+      <c r="E69" s="34">
+        <v>-5.2238509999999998</v>
+      </c>
+      <c r="F69" s="34">
+        <v>0.96391130000000003</v>
+      </c>
+      <c r="G69" s="34">
+        <v>-5.4194310000000003</v>
+      </c>
+      <c r="H69" s="36">
+        <v>5.9788909999999998E-8</v>
+      </c>
+      <c r="I69" s="36">
+        <v>3.5477250000000003E-5</v>
+      </c>
+      <c r="K69" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L69" s="34"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" t="s">
+        <v>225</v>
+      </c>
+      <c r="C71" t="s">
+        <v>226</v>
+      </c>
+      <c r="D71" s="34">
+        <v>16.481030000000001</v>
+      </c>
+      <c r="E71" s="34">
+        <v>-7.8795320000000002</v>
+      </c>
+      <c r="F71" s="34">
+        <v>2.2032039999999999</v>
+      </c>
+      <c r="G71" s="34">
+        <v>-3.576397</v>
+      </c>
+      <c r="H71" s="36">
+        <v>3.4836239999999998E-4</v>
+      </c>
+      <c r="I71" s="36">
+        <v>2.644695E-2</v>
+      </c>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" s="34">
+        <v>978.46037000000001</v>
+      </c>
+      <c r="E72" s="34">
+        <v>-7.616015</v>
+      </c>
+      <c r="F72" s="34">
+        <v>1.9815579999999999</v>
+      </c>
+      <c r="G72" s="34">
+        <v>-3.843448</v>
+      </c>
+      <c r="H72" s="36">
+        <v>1.2131780000000001E-4</v>
+      </c>
+      <c r="I72" s="36">
+        <v>1.1118609999999999E-2</v>
+      </c>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" s="34">
+        <v>132.86127999999999</v>
+      </c>
+      <c r="E73" s="34">
+        <v>21.057963000000001</v>
+      </c>
+      <c r="F73" s="34">
+        <v>5.9480092000000004</v>
+      </c>
+      <c r="G73" s="34">
+        <v>3.5403380000000002</v>
+      </c>
+      <c r="H73" s="36">
+        <v>3.9961499999999997E-4</v>
+      </c>
+      <c r="I73" s="36">
+        <v>2.945857E-2</v>
+      </c>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74" s="34">
+        <v>51.446010000000001</v>
+      </c>
+      <c r="E74" s="34">
+        <v>8.5460379999999994</v>
+      </c>
+      <c r="F74" s="34">
+        <v>2.2861935999999998</v>
+      </c>
+      <c r="G74" s="34">
+        <v>3.738108</v>
+      </c>
+      <c r="H74" s="36">
+        <v>1.854104E-4</v>
+      </c>
+      <c r="I74" s="36">
+        <v>1.6401570000000001E-2</v>
+      </c>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="34">
+        <v>67.754900000000006</v>
+      </c>
+      <c r="E75" s="34">
+        <v>8.4445230000000002</v>
+      </c>
+      <c r="F75" s="34">
+        <v>2.3967727999999999</v>
+      </c>
+      <c r="G75" s="34">
+        <v>3.5232890000000001</v>
+      </c>
+      <c r="H75" s="36">
+        <v>4.2622679999999998E-4</v>
+      </c>
+      <c r="I75" s="36">
+        <v>3.0971470000000001E-2</v>
+      </c>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" s="34">
+        <v>24.420839999999998</v>
+      </c>
+      <c r="E76" s="34">
+        <v>8.5534739999999996</v>
+      </c>
+      <c r="F76" s="34">
+        <v>2.4488903</v>
+      </c>
+      <c r="G76" s="34">
+        <v>3.4927959999999998</v>
+      </c>
+      <c r="H76" s="36">
+        <v>4.7799140000000001E-4</v>
+      </c>
+      <c r="I76" s="36">
+        <v>3.3078950000000003E-2</v>
+      </c>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B77" t="s">
+        <v>239</v>
+      </c>
+      <c r="C77" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" s="34">
+        <v>976.57938999999999</v>
+      </c>
+      <c r="E77" s="34">
+        <v>5.191878</v>
+      </c>
+      <c r="F77" s="34">
+        <v>1.2945525</v>
+      </c>
+      <c r="G77" s="34">
+        <v>4.0105579999999996</v>
+      </c>
+      <c r="H77" s="36">
+        <v>6.0575319999999997E-5</v>
+      </c>
+      <c r="I77" s="36">
+        <v>6.3312179999999996E-3</v>
+      </c>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="34">
+        <v>60.299190000000003</v>
+      </c>
+      <c r="E78" s="34">
+        <v>5.8175739999999996</v>
+      </c>
+      <c r="F78" s="34">
+        <v>1.7510813999999999</v>
+      </c>
+      <c r="G78" s="34">
+        <v>3.3222749999999999</v>
+      </c>
+      <c r="H78" s="36">
+        <v>8.9286669999999999E-4</v>
+      </c>
+      <c r="I78" s="36">
+        <v>4.9907319999999998E-2</v>
+      </c>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>241</v>
+      </c>
+      <c r="B79" t="s">
+        <v>242</v>
+      </c>
+      <c r="C79" t="s">
+        <v>243</v>
+      </c>
+      <c r="D79" s="34">
+        <v>22.635100000000001</v>
+      </c>
+      <c r="E79" s="34">
+        <v>-5.4921850000000001</v>
+      </c>
+      <c r="F79" s="34">
+        <v>1.6238798999999999</v>
+      </c>
+      <c r="G79" s="34">
+        <v>-3.3821370000000002</v>
+      </c>
+      <c r="H79" s="36">
+        <v>7.1924200000000004E-4</v>
+      </c>
+      <c r="I79" s="36">
+        <v>4.381347E-2</v>
+      </c>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="E1:E69" xr:uid="{762604D8-4AF4-3C40-A4F1-DEC7A72F56F4}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A1CD4B-B402-D34E-9B4A-DE3A8F86A239}">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:K50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>261.67</v>
+      </c>
+      <c r="E2">
+        <v>-6.25</v>
+      </c>
+      <c r="F2">
+        <v>0.76</v>
+      </c>
+      <c r="G2">
+        <v>-8.23</v>
+      </c>
+      <c r="H2" s="35">
+        <v>1.8100000000000001E-16</v>
+      </c>
+      <c r="I2" s="35">
+        <v>3.07E-13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>2716.38</v>
+      </c>
+      <c r="E3">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.26</v>
+      </c>
+      <c r="G3">
+        <v>-7.71</v>
+      </c>
+      <c r="H3" s="35">
+        <v>1.2900000000000001E-14</v>
+      </c>
+      <c r="I3" s="35">
+        <v>1.64E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>911.29</v>
+      </c>
+      <c r="E4">
+        <v>-3.31</v>
+      </c>
+      <c r="F4">
+        <v>0.45</v>
+      </c>
+      <c r="G4">
+        <v>-7.32</v>
+      </c>
+      <c r="H4" s="35">
+        <v>2.4999999999999999E-13</v>
+      </c>
+      <c r="I4" s="35">
+        <v>2.8200000000000001E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>772.05</v>
+      </c>
+      <c r="E5">
+        <v>-2.14</v>
+      </c>
+      <c r="F5">
+        <v>0.32</v>
+      </c>
+      <c r="G5">
+        <v>-6.75</v>
+      </c>
+      <c r="H5" s="35">
+        <v>1.5300000000000001E-11</v>
+      </c>
+      <c r="I5" s="35">
+        <v>1.2E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>491.44</v>
+      </c>
+      <c r="E6">
+        <v>-2.59</v>
+      </c>
+      <c r="F6">
+        <v>0.39</v>
+      </c>
+      <c r="G6">
+        <v>-6.67</v>
+      </c>
+      <c r="H6" s="35">
+        <v>2.5499999999999999E-11</v>
+      </c>
+      <c r="I6" s="35">
+        <v>1.85E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>1380.58</v>
+      </c>
+      <c r="E7">
+        <v>-2.42</v>
+      </c>
+      <c r="F7">
+        <v>0.36</v>
+      </c>
+      <c r="G7">
+        <v>-6.66</v>
+      </c>
+      <c r="H7" s="35">
+        <v>2.74E-11</v>
+      </c>
+      <c r="I7" s="35">
+        <v>1.8600000000000001E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>284.95999999999998</v>
+      </c>
+      <c r="E8">
+        <v>-3</v>
+      </c>
+      <c r="F8">
+        <v>0.48</v>
+      </c>
+      <c r="G8">
+        <v>-6.28</v>
+      </c>
+      <c r="H8" s="35">
+        <v>3.3399999999999998E-10</v>
+      </c>
+      <c r="I8" s="35">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>155.78</v>
+      </c>
+      <c r="E9">
+        <v>-4.88</v>
+      </c>
+      <c r="F9">
+        <v>0.8</v>
+      </c>
+      <c r="G9">
+        <v>-6.1</v>
+      </c>
+      <c r="H9" s="35">
+        <v>1.09E-9</v>
+      </c>
+      <c r="I9" s="35">
+        <v>5.4300000000000003E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>893.55</v>
+      </c>
+      <c r="E10">
+        <v>-2.59</v>
+      </c>
+      <c r="F10">
+        <v>0.43</v>
+      </c>
+      <c r="G10">
+        <v>-6</v>
+      </c>
+      <c r="H10" s="35">
+        <v>1.9399999999999999E-9</v>
+      </c>
+      <c r="I10" s="35">
+        <v>8.9800000000000002E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>420.2</v>
+      </c>
+      <c r="E11">
+        <v>-2.37</v>
+      </c>
+      <c r="F11">
+        <v>0.4</v>
+      </c>
+      <c r="G11">
+        <v>-5.93</v>
+      </c>
+      <c r="H11" s="35">
+        <v>3.0199999999999999E-9</v>
+      </c>
+      <c r="I11" s="35">
+        <v>1.28E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>179.99</v>
+      </c>
+      <c r="E12">
+        <v>-3.4</v>
+      </c>
+      <c r="F12">
+        <v>0.59</v>
+      </c>
+      <c r="G12">
+        <v>-5.78</v>
+      </c>
+      <c r="H12" s="35">
+        <v>7.3600000000000002E-9</v>
+      </c>
+      <c r="I12" s="35">
+        <v>2.88E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>62.64</v>
+      </c>
+      <c r="E13">
+        <v>-4.46</v>
+      </c>
+      <c r="F13">
+        <v>0.79</v>
+      </c>
+      <c r="G13">
+        <v>-5.61</v>
+      </c>
+      <c r="H13" s="35">
+        <v>2.03E-8</v>
+      </c>
+      <c r="I13" s="35">
+        <v>7.1099999999999997E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14">
+        <v>56.68</v>
+      </c>
+      <c r="E14">
+        <v>-4.67</v>
+      </c>
+      <c r="F14">
+        <v>0.84</v>
+      </c>
+      <c r="G14">
+        <v>-5.56</v>
+      </c>
+      <c r="H14" s="35">
+        <v>2.7199999999999999E-8</v>
+      </c>
+      <c r="I14" s="35">
+        <v>9.2099999999999999E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="E15">
+        <v>-4.07</v>
+      </c>
+      <c r="F15">
+        <v>0.76</v>
+      </c>
+      <c r="G15">
+        <v>-5.38</v>
+      </c>
+      <c r="H15" s="35">
+        <v>7.2800000000000003E-8</v>
+      </c>
+      <c r="I15" s="35">
+        <v>2.1800000000000001E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>256.86</v>
+      </c>
+      <c r="E16">
+        <v>-3.32</v>
+      </c>
+      <c r="F16">
+        <v>0.62</v>
+      </c>
+      <c r="G16">
+        <v>-5.37</v>
+      </c>
+      <c r="H16" s="35">
+        <v>7.8600000000000002E-8</v>
+      </c>
+      <c r="I16" s="35">
+        <v>2.2799999999999999E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>1093.78</v>
+      </c>
+      <c r="E17">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="F17">
+        <v>0.42</v>
+      </c>
+      <c r="G17">
+        <v>-5.35</v>
+      </c>
+      <c r="H17" s="35">
+        <v>8.9200000000000005E-8</v>
+      </c>
+      <c r="I17" s="35">
+        <v>2.5199999999999999E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>81.47</v>
+      </c>
+      <c r="E18">
+        <v>-3.62</v>
+      </c>
+      <c r="F18">
+        <v>0.7</v>
+      </c>
+      <c r="G18">
+        <v>-5.16</v>
+      </c>
+      <c r="H18" s="35">
+        <v>2.4900000000000002E-7</v>
+      </c>
+      <c r="I18" s="35">
+        <v>6.1799999999999998E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>164.3</v>
+      </c>
+      <c r="E19">
+        <v>-3.19</v>
+      </c>
+      <c r="F19">
+        <v>0.65</v>
+      </c>
+      <c r="G19">
+        <v>-4.92</v>
+      </c>
+      <c r="H19" s="35">
+        <v>8.4399999999999999E-7</v>
+      </c>
+      <c r="I19" s="35">
+        <v>1.95E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>1623</v>
+      </c>
+      <c r="E20">
+        <v>-2.31</v>
+      </c>
+      <c r="F20">
+        <v>0.47</v>
+      </c>
+      <c r="G20">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="H20" s="35">
+        <v>9.5999999999999991E-7</v>
+      </c>
+      <c r="I20" s="35">
+        <v>2.12E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>247.46</v>
+      </c>
+      <c r="E21">
+        <v>-2.58</v>
+      </c>
+      <c r="F21">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G21">
+        <v>-4.55</v>
+      </c>
+      <c r="H21" s="35">
+        <v>5.2800000000000003E-6</v>
+      </c>
+      <c r="I21" s="35">
+        <v>8.9599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22">
+        <v>2368.0100000000002</v>
+      </c>
+      <c r="E22">
+        <v>5.13</v>
+      </c>
+      <c r="F22">
+        <v>0.27</v>
+      </c>
+      <c r="G22">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="H22" s="35">
+        <v>3.56E-81</v>
+      </c>
+      <c r="I22" s="35">
+        <v>3.6199999999999997E-77</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23">
+        <v>9835.7900000000009</v>
+      </c>
+      <c r="E23">
+        <v>4.46</v>
+      </c>
+      <c r="F23">
+        <v>0.25</v>
+      </c>
+      <c r="G23">
+        <v>17.96</v>
+      </c>
+      <c r="H23" s="35">
+        <v>4.0199999999999999E-72</v>
+      </c>
+      <c r="I23" s="35">
+        <v>2.0500000000000001E-68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24">
+        <v>3412.65</v>
+      </c>
+      <c r="E24">
+        <v>5.68</v>
+      </c>
+      <c r="F24">
+        <v>0.39</v>
+      </c>
+      <c r="G24">
+        <v>14.57</v>
+      </c>
+      <c r="H24" s="35">
+        <v>4.5700000000000002E-48</v>
+      </c>
+      <c r="I24" s="35">
+        <v>1.5499999999999999E-44</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25">
+        <v>1071.44</v>
+      </c>
+      <c r="E25">
+        <v>2.93</v>
+      </c>
+      <c r="F25">
+        <v>0.33</v>
+      </c>
+      <c r="G25">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="H25" s="35">
+        <v>1.5400000000000001E-18</v>
+      </c>
+      <c r="I25" s="35">
+        <v>3.9300000000000004E-15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26">
+        <v>4912.57</v>
+      </c>
+      <c r="E26">
+        <v>3.76</v>
+      </c>
+      <c r="F26">
+        <v>0.43</v>
+      </c>
+      <c r="G26">
+        <v>8.66</v>
+      </c>
+      <c r="H26" s="35">
+        <v>4.5199999999999998E-18</v>
+      </c>
+      <c r="I26" s="35">
+        <v>9.2099999999999994E-15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27">
+        <v>182.33</v>
+      </c>
+      <c r="E27">
+        <v>4.47</v>
+      </c>
+      <c r="F27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G27">
+        <v>7.88</v>
+      </c>
+      <c r="H27" s="35">
+        <v>3.2899999999999998E-15</v>
+      </c>
+      <c r="I27" s="35">
+        <v>4.7700000000000001E-12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28">
+        <v>115.45</v>
+      </c>
+      <c r="E28">
+        <v>6.63</v>
+      </c>
+      <c r="F28">
+        <v>0.96</v>
+      </c>
+      <c r="G28">
+        <v>6.93</v>
+      </c>
+      <c r="H28" s="35">
+        <v>4.1100000000000001E-12</v>
+      </c>
+      <c r="I28" s="35">
+        <v>3.8000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29">
+        <v>245.65</v>
+      </c>
+      <c r="E29">
+        <v>7.69</v>
+      </c>
+      <c r="F29">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G29">
+        <v>6.91</v>
+      </c>
+      <c r="H29" s="35">
+        <v>4.92E-12</v>
+      </c>
+      <c r="I29" s="35">
+        <v>4.1700000000000003E-9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30">
+        <v>862.6</v>
+      </c>
+      <c r="E30">
+        <v>2.37</v>
+      </c>
+      <c r="F30">
+        <v>0.39</v>
+      </c>
+      <c r="G30">
+        <v>6.09</v>
+      </c>
+      <c r="H30" s="35">
+        <v>1.1200000000000001E-9</v>
+      </c>
+      <c r="I30" s="35">
+        <v>5.4300000000000003E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31">
+        <v>110.32</v>
+      </c>
+      <c r="E31">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="F31">
+        <v>0.81</v>
+      </c>
+      <c r="G31">
+        <v>6.1</v>
+      </c>
+      <c r="H31" s="35">
+        <v>1.0500000000000001E-9</v>
+      </c>
+      <c r="I31" s="35">
+        <v>5.4300000000000003E-7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>403.67</v>
+      </c>
+      <c r="E32">
+        <v>3.04</v>
+      </c>
+      <c r="F32">
+        <v>0.52</v>
+      </c>
+      <c r="G32">
+        <v>5.88</v>
+      </c>
+      <c r="H32" s="35">
+        <v>4.0300000000000004E-9</v>
+      </c>
+      <c r="I32" s="35">
+        <v>1.64E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33">
+        <v>1816.21</v>
+      </c>
+      <c r="E33">
+        <v>5.55</v>
+      </c>
+      <c r="F33">
+        <v>0.98</v>
+      </c>
+      <c r="G33">
+        <v>5.66</v>
+      </c>
+      <c r="H33" s="35">
+        <v>1.52E-8</v>
+      </c>
+      <c r="I33" s="35">
+        <v>5.5199999999999997E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34">
+        <v>258.36</v>
+      </c>
+      <c r="E34">
+        <v>3.08</v>
+      </c>
+      <c r="F34">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G34">
+        <v>5.44</v>
+      </c>
+      <c r="H34" s="35">
+        <v>5.2299999999999998E-8</v>
+      </c>
+      <c r="I34" s="35">
+        <v>1.7200000000000001E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35">
+        <v>379.27</v>
+      </c>
+      <c r="E35">
+        <v>2.16</v>
+      </c>
+      <c r="F35">
+        <v>0.4</v>
+      </c>
+      <c r="G35">
+        <v>5.44</v>
+      </c>
+      <c r="H35" s="35">
+        <v>5.4100000000000001E-8</v>
+      </c>
+      <c r="I35" s="35">
+        <v>1.7200000000000001E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36">
+        <v>330.33</v>
+      </c>
+      <c r="E36">
+        <v>2.21</v>
+      </c>
+      <c r="F36">
+        <v>0.41</v>
+      </c>
+      <c r="G36">
+        <v>5.32</v>
+      </c>
+      <c r="H36" s="35">
+        <v>1.02E-7</v>
+      </c>
+      <c r="I36" s="35">
+        <v>2.8099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37">
+        <v>147.86000000000001</v>
+      </c>
+      <c r="E37">
+        <v>2.72</v>
+      </c>
+      <c r="F37">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G37">
+        <v>4.79</v>
+      </c>
+      <c r="H37" s="35">
+        <v>1.6300000000000001E-6</v>
+      </c>
+      <c r="I37" s="35">
+        <v>3.39E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38">
+        <v>143.02000000000001</v>
+      </c>
+      <c r="E38">
+        <v>2.97</v>
+      </c>
+      <c r="F38">
+        <v>0.64</v>
+      </c>
+      <c r="G38">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H38" s="35">
+        <v>3.2899999999999998E-6</v>
+      </c>
+      <c r="I38" s="35">
+        <v>6.4300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39">
+        <v>437.62</v>
+      </c>
+      <c r="E39">
+        <v>2.6</v>
+      </c>
+      <c r="F39">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G39">
+        <v>4.63</v>
+      </c>
+      <c r="H39" s="35">
+        <v>3.63E-6</v>
+      </c>
+      <c r="I39" s="35">
+        <v>6.8400000000000004E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40">
+        <v>225.77</v>
+      </c>
+      <c r="E40">
+        <v>2.38</v>
+      </c>
+      <c r="F40">
+        <v>0.52</v>
+      </c>
+      <c r="G40">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="H40" s="35">
+        <v>3.9899999999999999E-6</v>
+      </c>
+      <c r="I40" s="35">
+        <v>7.1299999999999998E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41">
+        <v>85.66</v>
+      </c>
+      <c r="E41">
+        <v>7.33</v>
+      </c>
+      <c r="F41">
+        <v>1.59</v>
+      </c>
+      <c r="G41">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="H41" s="35">
+        <v>4.0999999999999997E-6</v>
+      </c>
+      <c r="I41" s="35">
+        <v>7.1900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="34">
+        <v>16.481030000000001</v>
+      </c>
+      <c r="E42" s="34">
+        <v>-7.8795320000000002</v>
+      </c>
+      <c r="F42" s="34">
+        <v>2.2032039999999999</v>
+      </c>
+      <c r="G42" s="34">
+        <v>-3.576397</v>
+      </c>
+      <c r="H42" s="36">
+        <v>3.4836239999999998E-4</v>
+      </c>
+      <c r="I42" s="36">
+        <v>2.644695E-2</v>
+      </c>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="L42" s="34"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" s="34">
+        <v>978.46037000000001</v>
+      </c>
+      <c r="E43" s="34">
+        <v>-7.616015</v>
+      </c>
+      <c r="F43" s="34">
+        <v>1.9815579999999999</v>
+      </c>
+      <c r="G43" s="34">
+        <v>-3.843448</v>
+      </c>
+      <c r="H43" s="36">
+        <v>1.2131780000000001E-4</v>
+      </c>
+      <c r="I43" s="36">
+        <v>1.1118609999999999E-2</v>
+      </c>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="34">
+        <v>132.86127999999999</v>
+      </c>
+      <c r="E44" s="34">
+        <v>21.057963000000001</v>
+      </c>
+      <c r="F44" s="34">
+        <v>5.9480092000000004</v>
+      </c>
+      <c r="G44" s="34">
+        <v>3.5403380000000002</v>
+      </c>
+      <c r="H44" s="36">
+        <v>3.9961499999999997E-4</v>
+      </c>
+      <c r="I44" s="36">
+        <v>2.945857E-2</v>
+      </c>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B45" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="34">
+        <v>51.446010000000001</v>
+      </c>
+      <c r="E45" s="34">
+        <v>8.5460379999999994</v>
+      </c>
+      <c r="F45" s="34">
+        <v>2.2861935999999998</v>
+      </c>
+      <c r="G45" s="34">
+        <v>3.738108</v>
+      </c>
+      <c r="H45" s="36">
+        <v>1.854104E-4</v>
+      </c>
+      <c r="I45" s="36">
+        <v>1.6401570000000001E-2</v>
+      </c>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="34">
+        <v>67.754900000000006</v>
+      </c>
+      <c r="E46" s="34">
+        <v>8.4445230000000002</v>
+      </c>
+      <c r="F46" s="34">
+        <v>2.3967727999999999</v>
+      </c>
+      <c r="G46" s="34">
+        <v>3.5232890000000001</v>
+      </c>
+      <c r="H46" s="36">
+        <v>4.2622679999999998E-4</v>
+      </c>
+      <c r="I46" s="36">
+        <v>3.0971470000000001E-2</v>
+      </c>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="L46" s="34"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="34">
+        <v>24.420839999999998</v>
+      </c>
+      <c r="E47" s="34">
+        <v>8.5534739999999996</v>
+      </c>
+      <c r="F47" s="34">
+        <v>2.4488903</v>
+      </c>
+      <c r="G47" s="34">
+        <v>3.4927959999999998</v>
+      </c>
+      <c r="H47" s="36">
+        <v>4.7799140000000001E-4</v>
+      </c>
+      <c r="I47" s="36">
+        <v>3.3078950000000003E-2</v>
+      </c>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="34">
+        <v>976.57938999999999</v>
+      </c>
+      <c r="E48" s="34">
+        <v>5.191878</v>
+      </c>
+      <c r="F48" s="34">
+        <v>1.2945525</v>
+      </c>
+      <c r="G48" s="34">
+        <v>4.0105579999999996</v>
+      </c>
+      <c r="H48" s="36">
+        <v>6.0575319999999997E-5</v>
+      </c>
+      <c r="I48" s="36">
+        <v>6.3312179999999996E-3</v>
+      </c>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>240</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="34">
+        <v>60.299190000000003</v>
+      </c>
+      <c r="E49" s="34">
+        <v>5.8175739999999996</v>
+      </c>
+      <c r="F49" s="34">
+        <v>1.7510813999999999</v>
+      </c>
+      <c r="G49" s="34">
+        <v>3.3222749999999999</v>
+      </c>
+      <c r="H49" s="36">
+        <v>8.9286669999999999E-4</v>
+      </c>
+      <c r="I49" s="36">
+        <v>4.9907319999999998E-2</v>
+      </c>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="34">
+        <v>22.635100000000001</v>
+      </c>
+      <c r="E50" s="34">
+        <v>-5.4921850000000001</v>
+      </c>
+      <c r="F50" s="34">
+        <v>1.6238798999999999</v>
+      </c>
+      <c r="G50" s="34">
+        <v>-3.3821370000000002</v>
+      </c>
+      <c r="H50" s="36">
+        <v>7.1924200000000004E-4</v>
+      </c>
+      <c r="I50" s="36">
+        <v>4.381347E-2</v>
+      </c>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>